--- a/INTLINE/data/548/BNM/Gross Domestic Product by Kind of Economic Activity at CurrentQ_historical.xlsx
+++ b/INTLINE/data/548/BNM/Gross Domestic Product by Kind of Economic Activity at CurrentQ_historical.xlsx
@@ -1,477 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Gross Domestic Product by Kind" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gross Domestic Product by Kind" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
-  <si>
-    <t>1991-Q1</t>
-  </si>
-  <si>
-    <t>1991-Q2</t>
-  </si>
-  <si>
-    <t>1991-Q3</t>
-  </si>
-  <si>
-    <t>1991-Q4</t>
-  </si>
-  <si>
-    <t>1992-Q1</t>
-  </si>
-  <si>
-    <t>1992-Q2</t>
-  </si>
-  <si>
-    <t>1992-Q3</t>
-  </si>
-  <si>
-    <t>1992-Q4</t>
-  </si>
-  <si>
-    <t>1993-Q1</t>
-  </si>
-  <si>
-    <t>1993-Q2</t>
-  </si>
-  <si>
-    <t>1993-Q3</t>
-  </si>
-  <si>
-    <t>1993-Q4</t>
-  </si>
-  <si>
-    <t>1994-Q1</t>
-  </si>
-  <si>
-    <t>1994-Q2</t>
-  </si>
-  <si>
-    <t>1994-Q3</t>
-  </si>
-  <si>
-    <t>1994-Q4</t>
-  </si>
-  <si>
-    <t>1995-Q1</t>
-  </si>
-  <si>
-    <t>1995-Q2</t>
-  </si>
-  <si>
-    <t>1995-Q3</t>
-  </si>
-  <si>
-    <t>1995-Q4</t>
-  </si>
-  <si>
-    <t>1996-Q1</t>
-  </si>
-  <si>
-    <t>1996-Q2</t>
-  </si>
-  <si>
-    <t>1996-Q3</t>
-  </si>
-  <si>
-    <t>1996-Q4</t>
-  </si>
-  <si>
-    <t>1997-Q1</t>
-  </si>
-  <si>
-    <t>1997-Q2</t>
-  </si>
-  <si>
-    <t>1997-Q3</t>
-  </si>
-  <si>
-    <t>1997-Q4</t>
-  </si>
-  <si>
-    <t>1998-Q1</t>
-  </si>
-  <si>
-    <t>1998-Q2</t>
-  </si>
-  <si>
-    <t>1998-Q3</t>
-  </si>
-  <si>
-    <t>1998-Q4</t>
-  </si>
-  <si>
-    <t>1999-Q1</t>
-  </si>
-  <si>
-    <t>1999-Q2</t>
-  </si>
-  <si>
-    <t>1999-Q3</t>
-  </si>
-  <si>
-    <t>1999-Q4</t>
-  </si>
-  <si>
-    <t>2000-Q1</t>
-  </si>
-  <si>
-    <t>2000-Q2</t>
-  </si>
-  <si>
-    <t>2000-Q3</t>
-  </si>
-  <si>
-    <t>2000-Q4</t>
-  </si>
-  <si>
-    <t>2001-Q1</t>
-  </si>
-  <si>
-    <t>2001-Q2</t>
-  </si>
-  <si>
-    <t>2001-Q3</t>
-  </si>
-  <si>
-    <t>2001-Q4</t>
-  </si>
-  <si>
-    <t>2002-Q1</t>
-  </si>
-  <si>
-    <t>2002-Q2</t>
-  </si>
-  <si>
-    <t>2002-Q3</t>
-  </si>
-  <si>
-    <t>2002-Q4</t>
-  </si>
-  <si>
-    <t>2003-Q1</t>
-  </si>
-  <si>
-    <t>2003-Q2</t>
-  </si>
-  <si>
-    <t>2003-Q3</t>
-  </si>
-  <si>
-    <t>2003-Q4</t>
-  </si>
-  <si>
-    <t>2004-Q1</t>
-  </si>
-  <si>
-    <t>2004-Q2</t>
-  </si>
-  <si>
-    <t>2004-Q3</t>
-  </si>
-  <si>
-    <t>2004-Q4</t>
-  </si>
-  <si>
-    <t>2005-Q1</t>
-  </si>
-  <si>
-    <t>2005-Q2</t>
-  </si>
-  <si>
-    <t>2005-Q3</t>
-  </si>
-  <si>
-    <t>2005-Q4</t>
-  </si>
-  <si>
-    <t>2006-Q1</t>
-  </si>
-  <si>
-    <t>2006-Q2</t>
-  </si>
-  <si>
-    <t>2006-Q3</t>
-  </si>
-  <si>
-    <t>2006-Q4</t>
-  </si>
-  <si>
-    <t>2007-Q1</t>
-  </si>
-  <si>
-    <t>2007-Q2</t>
-  </si>
-  <si>
-    <t>2007-Q3</t>
-  </si>
-  <si>
-    <t>2007-Q4</t>
-  </si>
-  <si>
-    <t>2008-Q1</t>
-  </si>
-  <si>
-    <t>2008-Q2</t>
-  </si>
-  <si>
-    <t>2008-Q3</t>
-  </si>
-  <si>
-    <t>2008-Q4</t>
-  </si>
-  <si>
-    <t>2009-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q2</t>
-  </si>
-  <si>
-    <t>2009-Q3</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2010-Q2</t>
-  </si>
-  <si>
-    <t>2010-Q3</t>
-  </si>
-  <si>
-    <t>2010-Q4</t>
-  </si>
-  <si>
-    <t>2011-Q1</t>
-  </si>
-  <si>
-    <t>2011-Q2</t>
-  </si>
-  <si>
-    <t>2011-Q3</t>
-  </si>
-  <si>
-    <t>2011-Q4</t>
-  </si>
-  <si>
-    <t>2012-Q1</t>
-  </si>
-  <si>
-    <t>2012-Q2</t>
-  </si>
-  <si>
-    <t>2012-Q3</t>
-  </si>
-  <si>
-    <t>2012-Q4</t>
-  </si>
-  <si>
-    <t>2013-Q1</t>
-  </si>
-  <si>
-    <t>2013-Q2</t>
-  </si>
-  <si>
-    <t>2013-Q3</t>
-  </si>
-  <si>
-    <t>2013-Q4</t>
-  </si>
-  <si>
-    <t>2014-Q1</t>
-  </si>
-  <si>
-    <t>2014-Q2</t>
-  </si>
-  <si>
-    <t>2014-Q3</t>
-  </si>
-  <si>
-    <t>2014-Q4</t>
-  </si>
-  <si>
-    <t>2015-Q1</t>
-  </si>
-  <si>
-    <t>2015-Q2</t>
-  </si>
-  <si>
-    <t>2015-Q3</t>
-  </si>
-  <si>
-    <t>2015-Q4</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>2016-Q4</t>
-  </si>
-  <si>
-    <t>2017-Q1</t>
-  </si>
-  <si>
-    <t>2017-Q2</t>
-  </si>
-  <si>
-    <t>2017-Q3</t>
-  </si>
-  <si>
-    <t>2017-Q4</t>
-  </si>
-  <si>
-    <t>2018-Q1</t>
-  </si>
-  <si>
-    <t>2018-Q2</t>
-  </si>
-  <si>
-    <t>2018-Q3</t>
-  </si>
-  <si>
-    <t>2018-Q4</t>
-  </si>
-  <si>
-    <t>2019-Q1</t>
-  </si>
-  <si>
-    <t>2019-Q2</t>
-  </si>
-  <si>
-    <t>2019-Q3</t>
-  </si>
-  <si>
-    <t>2019-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q1</t>
-  </si>
-  <si>
-    <t>2020-Q2</t>
-  </si>
-  <si>
-    <t>2020-Q3</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q2</t>
-  </si>
-  <si>
-    <t>2021-Q3</t>
-  </si>
-  <si>
-    <t>2021-Q4</t>
-  </si>
-  <si>
-    <t>2022-Q1</t>
-  </si>
-  <si>
-    <t>AgricultureRM</t>
-  </si>
-  <si>
-    <t>Mining and QuarryingRM</t>
-  </si>
-  <si>
-    <t>ManufacturingRM</t>
-  </si>
-  <si>
-    <t>ConstructionRM</t>
-  </si>
-  <si>
-    <t>Electricity and GasRM</t>
-  </si>
-  <si>
-    <t>Water, Sewerage and Waste ManagementRM</t>
-  </si>
-  <si>
-    <t>Wholesale TradeRM</t>
-  </si>
-  <si>
-    <t>Retail TradeRM</t>
-  </si>
-  <si>
-    <t>AccomodationRM</t>
-  </si>
-  <si>
-    <t>Food and BeverageRM</t>
-  </si>
-  <si>
-    <t>Transport and StorageRM</t>
-  </si>
-  <si>
-    <t>Infor &amp; CommunicationRM</t>
-  </si>
-  <si>
-    <t>FinanceRM</t>
-  </si>
-  <si>
-    <t>InsuranceRM</t>
-  </si>
-  <si>
-    <t>Government ServicesRM</t>
-  </si>
-  <si>
-    <t>Other ServicesRM</t>
-  </si>
-  <si>
-    <t>Import DutiesRM</t>
-  </si>
-  <si>
-    <t>GDP at Purchasers' ValueRM</t>
-  </si>
-  <si>
-    <t>ServicesRM</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -486,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -505,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -802,5943 +353,6793 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:DV20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:126">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q4</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q4</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q3</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q4</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q4</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q3</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q4</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q3</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q4</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q4</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q3</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q4</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q3</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q4</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q3</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q4</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q1</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q3</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q4</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q1</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q3</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q4</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q3</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q4</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q1</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q3</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q4</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q1</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q3</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q4</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q1</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q2</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q3</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q4</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q1</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q2</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q3</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q4</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q1</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q2</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q3</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q4</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q1</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q2</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q3</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q4</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q1</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q2</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q3</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q4</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q1</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q2</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q3</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q4</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q1</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q2</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q3</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q4</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q2</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q3</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:126">
-      <c r="A2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AgricultureRM</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>4329</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>4432</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>5397</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>5240</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>4795</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>5565</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>5961</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>5637</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>5771</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>5898</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>6338</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>5733</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>5433</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>6348</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>7300</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>7621</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>7095</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>6820</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>7278</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>7617</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>6585</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>7354</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>7943</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>7755</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>6864</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>7654</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>7941</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>8825</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>8423</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>9319</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>10525</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>9440</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>7710</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>8659</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>8055</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>8186</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>6937</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>7448</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>8195</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>8068</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>6546</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>6702</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>7717</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>7280</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>7213</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>8108</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>9507</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>9603</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>8500</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>9436</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>10216</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>10819</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>10292</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>11187</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>11573</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>10898</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>10071.595333825</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>11177.3847922957</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>12086.1603105862</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>11577.1038555667</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>11649.9048858918</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>12351.4073382038</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>14391.8614476557</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>12989.7211610154</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>13426.2384626714</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>15389.9561308131</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>18350.2301871343</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>19279.3943236632</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>20200.2642336461</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>20910.3000323082</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>21288.0779060349</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" t="n">
         <v>14354.4777418366</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" t="n">
         <v>12912</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" t="n">
         <v>16723</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" t="n">
         <v>17392</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" t="n">
         <v>18692</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" t="n">
         <v>18581</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" t="n">
         <v>19043</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" t="n">
         <v>21771</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" t="n">
         <v>23486</v>
       </c>
-      <c r="CD2">
+      <c r="CD2" t="n">
         <v>24676</v>
       </c>
-      <c r="CE2">
+      <c r="CE2" t="n">
         <v>27004</v>
       </c>
-      <c r="CF2">
+      <c r="CF2" t="n">
         <v>28038</v>
       </c>
-      <c r="CG2">
+      <c r="CG2" t="n">
         <v>24706</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" t="n">
         <v>22574</v>
       </c>
-      <c r="CI2">
+      <c r="CI2" t="n">
         <v>23543</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" t="n">
         <v>26013</v>
       </c>
-      <c r="CK2">
+      <c r="CK2" t="n">
         <v>22992</v>
       </c>
-      <c r="CL2">
+      <c r="CL2" t="n">
         <v>21211</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" t="n">
         <v>20792</v>
       </c>
-      <c r="CN2">
+      <c r="CN2" t="n">
         <v>25339</v>
       </c>
-      <c r="CO2">
+      <c r="CO2" t="n">
         <v>25487</v>
       </c>
-      <c r="CP2">
+      <c r="CP2" t="n">
         <v>23917</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ2" t="n">
         <v>24599</v>
       </c>
-      <c r="CR2">
+      <c r="CR2" t="n">
         <v>26173</v>
       </c>
-      <c r="CS2">
+      <c r="CS2" t="n">
         <v>23487</v>
       </c>
-      <c r="CT2">
+      <c r="CT2" t="n">
         <v>22254</v>
       </c>
-      <c r="CU2">
+      <c r="CU2" t="n">
         <v>24448</v>
       </c>
-      <c r="CV2">
+      <c r="CV2" t="n">
         <v>27001</v>
       </c>
-      <c r="CW2">
+      <c r="CW2" t="n">
         <v>24424</v>
       </c>
-      <c r="CX2">
+      <c r="CX2" t="n">
         <v>30435.222</v>
       </c>
-      <c r="CY2">
+      <c r="CY2" t="n">
         <v>26156.625</v>
       </c>
-      <c r="CZ2">
+      <c r="CZ2" t="n">
         <v>25805.968</v>
       </c>
-      <c r="DA2">
+      <c r="DA2" t="n">
         <v>29337.357</v>
       </c>
-      <c r="DB2">
+      <c r="DB2" t="n">
         <v>27748.151</v>
       </c>
-      <c r="DC2">
+      <c r="DC2" t="n">
         <v>27938.236</v>
       </c>
-      <c r="DD2">
+      <c r="DD2" t="n">
         <v>31873.399</v>
       </c>
-      <c r="DE2">
+      <c r="DE2" t="n">
         <v>30435.222</v>
       </c>
-      <c r="DF2">
+      <c r="DF2" t="n">
         <v>26156.625</v>
       </c>
-      <c r="DG2">
+      <c r="DG2" t="n">
         <v>25805.968</v>
       </c>
-      <c r="DH2">
+      <c r="DH2" t="n">
         <v>29385.518</v>
       </c>
-      <c r="DI2">
+      <c r="DI2" t="n">
         <v>27408.419</v>
       </c>
-      <c r="DJ2">
+      <c r="DJ2" t="n">
         <v>25729.01</v>
       </c>
-      <c r="DK2">
+      <c r="DK2" t="n">
         <v>25348.575</v>
       </c>
-      <c r="DL2">
+      <c r="DL2" t="n">
         <v>29896.361</v>
       </c>
-      <c r="DM2">
+      <c r="DM2" t="n">
         <v>28568.145</v>
       </c>
-      <c r="DN2">
+      <c r="DN2" t="n">
         <v>25326.62</v>
       </c>
-      <c r="DO2">
+      <c r="DO2" t="n">
         <v>26524.835</v>
       </c>
-      <c r="DP2">
+      <c r="DP2" t="n">
         <v>32418.117</v>
       </c>
-      <c r="DQ2">
+      <c r="DQ2" t="n">
         <v>31560.123</v>
       </c>
-      <c r="DR2">
+      <c r="DR2" t="n">
         <v>30058.957</v>
       </c>
-      <c r="DS2">
+      <c r="DS2" t="n">
         <v>34734.049</v>
       </c>
-      <c r="DT2">
+      <c r="DT2" t="n">
         <v>40499.155</v>
       </c>
-      <c r="DU2">
+      <c r="DU2" t="n">
         <v>42880.929</v>
       </c>
-      <c r="DV2">
+      <c r="DV2" t="n">
         <v>38564.331</v>
       </c>
     </row>
-    <row r="3" spans="1:126">
-      <c r="A3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Mining and QuarryingRM</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>3694</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>2831</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>3382</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>3817</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>3116</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>2951</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>3199</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>3132</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>3060</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>2840</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>2670</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>2467</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>2395</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>2370</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>2791</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>2870</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>3279</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>3216</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>3449</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>3921</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>4174</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>3860</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>3945</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>4619</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>4866</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>4342</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>4325</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>5899</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>5851</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>4779</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>4356</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>4070</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>3999</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>4618</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>6407</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>8058</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>8640</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>8917</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>9826</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>10233</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>9244</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>8837</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>8565</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>7300</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>7218</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>7618</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>9463</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>9870</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>11221</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>9659</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" t="n">
         <v>10029</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" t="n">
         <v>11009</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" t="n">
         <v>12330</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" t="n">
         <v>12599</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" t="n">
         <v>15501</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="n">
         <v>16451</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>16163.9842275222</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>16120.5276487939</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>20066.2131460985</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>19760.1647238357</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>20159.6775568587</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>20209.8218433781</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>21771.3294594435</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>19618.6662569505</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>18477.0923166227</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>21484.8937144718</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>21581.5476803899</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>26788.1343880873</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>26442.8593886537</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>31272.5148210057</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" t="n">
         <v>34324.7128573954</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" t="n">
         <v>28130.3964211988</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" t="n">
         <v>21613</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" t="n">
         <v>16720</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" t="n">
         <v>19472</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" t="n">
         <v>23537</v>
       </c>
-      <c r="BZ3">
+      <c r="BZ3" t="n">
         <v>23383</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" t="n">
         <v>21757</v>
       </c>
-      <c r="CB3">
+      <c r="CB3" t="n">
         <v>21730</v>
       </c>
-      <c r="CC3">
+      <c r="CC3" t="n">
         <v>22923</v>
       </c>
-      <c r="CD3">
+      <c r="CD3" t="n">
         <v>24097</v>
       </c>
-      <c r="CE3">
+      <c r="CE3" t="n">
         <v>23123</v>
       </c>
-      <c r="CF3">
+      <c r="CF3" t="n">
         <v>23181</v>
       </c>
-      <c r="CG3">
+      <c r="CG3" t="n">
         <v>25504</v>
       </c>
-      <c r="CH3">
+      <c r="CH3" t="n">
         <v>27716</v>
       </c>
-      <c r="CI3">
+      <c r="CI3" t="n">
         <v>24858</v>
       </c>
-      <c r="CJ3">
+      <c r="CJ3" t="n">
         <v>23553</v>
       </c>
-      <c r="CK3">
+      <c r="CK3" t="n">
         <v>25347</v>
       </c>
-      <c r="CL3">
+      <c r="CL3" t="n">
         <v>27092</v>
       </c>
-      <c r="CM3">
+      <c r="CM3" t="n">
         <v>23655</v>
       </c>
-      <c r="CN3">
+      <c r="CN3" t="n">
         <v>24597</v>
       </c>
-      <c r="CO3">
+      <c r="CO3" t="n">
         <v>28140</v>
       </c>
-      <c r="CP3">
+      <c r="CP3" t="n">
         <v>29452</v>
       </c>
-      <c r="CQ3">
+      <c r="CQ3" t="n">
         <v>27107</v>
       </c>
-      <c r="CR3">
+      <c r="CR3" t="n">
         <v>24543</v>
       </c>
-      <c r="CS3">
+      <c r="CS3" t="n">
         <v>27963</v>
       </c>
-      <c r="CT3">
+      <c r="CT3" t="n">
         <v>27947</v>
       </c>
-      <c r="CU3">
+      <c r="CU3" t="n">
         <v>26058</v>
       </c>
-      <c r="CV3">
+      <c r="CV3" t="n">
         <v>23741</v>
       </c>
-      <c r="CW3">
+      <c r="CW3" t="n">
         <v>25972</v>
       </c>
-      <c r="CX3">
+      <c r="CX3" t="n">
         <v>31514.053</v>
       </c>
-      <c r="CY3">
+      <c r="CY3" t="n">
         <v>33488.548</v>
       </c>
-      <c r="CZ3">
+      <c r="CZ3" t="n">
         <v>33727.047</v>
       </c>
-      <c r="DA3">
+      <c r="DA3" t="n">
         <v>32686.21</v>
       </c>
-      <c r="DB3">
+      <c r="DB3" t="n">
         <v>32141.004</v>
       </c>
-      <c r="DC3">
+      <c r="DC3" t="n">
         <v>29598.034</v>
       </c>
-      <c r="DD3">
+      <c r="DD3" t="n">
         <v>28072.647</v>
       </c>
-      <c r="DE3">
+      <c r="DE3" t="n">
         <v>31514.053</v>
       </c>
-      <c r="DF3">
+      <c r="DF3" t="n">
         <v>33458.102</v>
       </c>
-      <c r="DG3">
+      <c r="DG3" t="n">
         <v>33765.702</v>
       </c>
-      <c r="DH3">
+      <c r="DH3" t="n">
         <v>32720.573</v>
       </c>
-      <c r="DI3">
+      <c r="DI3" t="n">
         <v>34888.861</v>
       </c>
-      <c r="DJ3">
+      <c r="DJ3" t="n">
         <v>34448.416</v>
       </c>
-      <c r="DK3">
+      <c r="DK3" t="n">
         <v>34786.745</v>
       </c>
-      <c r="DL3">
+      <c r="DL3" t="n">
         <v>29281.344</v>
       </c>
-      <c r="DM3">
+      <c r="DM3" t="n">
         <v>32567.338</v>
       </c>
-      <c r="DN3">
+      <c r="DN3" t="n">
         <v>31031.647</v>
       </c>
-      <c r="DO3">
+      <c r="DO3" t="n">
         <v>21180.251</v>
       </c>
-      <c r="DP3">
+      <c r="DP3" t="n">
         <v>21223.671</v>
       </c>
-      <c r="DQ3">
+      <c r="DQ3" t="n">
         <v>22736.214</v>
       </c>
-      <c r="DR3">
+      <c r="DR3" t="n">
         <v>29466.907</v>
       </c>
-      <c r="DS3">
+      <c r="DS3" t="n">
         <v>31592.406</v>
       </c>
-      <c r="DT3">
+      <c r="DT3" t="n">
         <v>28762.526</v>
       </c>
-      <c r="DU3">
+      <c r="DU3" t="n">
         <v>33750.019</v>
       </c>
-      <c r="DV3">
+      <c r="DV3" t="n">
         <v>42296.187</v>
       </c>
     </row>
-    <row r="4" spans="1:126">
-      <c r="A4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ManufacturingRM</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>8043</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>8105</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>9132</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>9244</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>9312</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>9163</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>10122</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>10312</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>10201</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>10905</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>11773</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>11764</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>11382</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>12706</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>13891</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>14093</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>13562</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>14202</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>15153</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>15766</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>16254</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>17459</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>18324</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>18608</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>17919</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>18850</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>20842</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>22363</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>20284</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>19871</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>20951</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>20419</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>20013</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>22927</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>24631</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>25475</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>25147</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>26931</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>29458</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>28462</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>25235</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>25839</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>26557</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>25803</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>25545</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>27468</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>30132</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>28931</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>29516</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>30834</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" t="n">
         <v>32344</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" t="n">
         <v>32637</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" t="n">
         <v>33573</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" t="n">
         <v>35585</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" t="n">
         <v>37492</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" t="n">
         <v>37356</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" t="n">
         <v>34905.543278593</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" t="n">
         <v>36583.6220711643</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" t="n">
         <v>38738.0234026048</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>39527.1655550252</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>38965.5376089548</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>40640.5140222219</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>42697.8999482427</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>42205.831841386</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>40624.4350857611</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>42023.5474037366</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>44944.8056962799</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>46211.5270127337</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>45916.359236533</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>48639.5254375322</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>50165.6889085549</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" t="n">
         <v>44383.4880738936</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" t="n">
         <v>38743</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" t="n">
         <v>40388</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" t="n">
         <v>43941</v>
       </c>
-      <c r="BY4">
+      <c r="BY4" t="n">
         <v>46588</v>
       </c>
-      <c r="BZ4">
+      <c r="BZ4" t="n">
         <v>46934</v>
       </c>
-      <c r="CA4">
+      <c r="CA4" t="n">
         <v>47330</v>
       </c>
-      <c r="CB4">
+      <c r="CB4" t="n">
         <v>48407</v>
       </c>
-      <c r="CC4">
+      <c r="CC4" t="n">
         <v>49822</v>
       </c>
-      <c r="CD4">
+      <c r="CD4" t="n">
         <v>51832</v>
       </c>
-      <c r="CE4">
+      <c r="CE4" t="n">
         <v>52083</v>
       </c>
-      <c r="CF4">
+      <c r="CF4" t="n">
         <v>53829</v>
       </c>
-      <c r="CG4">
+      <c r="CG4" t="n">
         <v>54874</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" t="n">
         <v>54942</v>
       </c>
-      <c r="CI4">
+      <c r="CI4" t="n">
         <v>56110</v>
       </c>
-      <c r="CJ4">
+      <c r="CJ4" t="n">
         <v>56124</v>
       </c>
-      <c r="CK4">
+      <c r="CK4" t="n">
         <v>57554</v>
       </c>
-      <c r="CL4">
+      <c r="CL4" t="n">
         <v>54552</v>
       </c>
-      <c r="CM4">
+      <c r="CM4" t="n">
         <v>57175</v>
       </c>
-      <c r="CN4">
+      <c r="CN4" t="n">
         <v>58545</v>
       </c>
-      <c r="CO4">
+      <c r="CO4" t="n">
         <v>62388</v>
       </c>
-      <c r="CP4">
+      <c r="CP4" t="n">
         <v>59848</v>
       </c>
-      <c r="CQ4">
+      <c r="CQ4" t="n">
         <v>63631</v>
       </c>
-      <c r="CR4">
+      <c r="CR4" t="n">
         <v>63821</v>
       </c>
-      <c r="CS4">
+      <c r="CS4" t="n">
         <v>65787</v>
       </c>
-      <c r="CT4">
+      <c r="CT4" t="n">
         <v>62404</v>
       </c>
-      <c r="CU4">
+      <c r="CU4" t="n">
         <v>65345</v>
       </c>
-      <c r="CV4">
+      <c r="CV4" t="n">
         <v>66528</v>
       </c>
-      <c r="CW4">
+      <c r="CW4" t="n">
         <v>68854</v>
       </c>
-      <c r="CX4">
+      <c r="CX4" t="n">
         <v>77939.908</v>
       </c>
-      <c r="CY4">
+      <c r="CY4" t="n">
         <v>73899.193</v>
       </c>
-      <c r="CZ4">
+      <c r="CZ4" t="n">
         <v>77680.239</v>
       </c>
-      <c r="DA4">
+      <c r="DA4" t="n">
         <v>79323.715</v>
       </c>
-      <c r="DB4">
+      <c r="DB4" t="n">
         <v>70891.852</v>
       </c>
-      <c r="DC4">
+      <c r="DC4" t="n">
         <v>74946.05499999999</v>
       </c>
-      <c r="DD4">
+      <c r="DD4" t="n">
         <v>76019.667</v>
       </c>
-      <c r="DE4">
+      <c r="DE4" t="n">
         <v>77939.908</v>
       </c>
-      <c r="DF4">
+      <c r="DF4" t="n">
         <v>73899.193</v>
       </c>
-      <c r="DG4">
+      <c r="DG4" t="n">
         <v>77680.239</v>
       </c>
-      <c r="DH4">
+      <c r="DH4" t="n">
         <v>79323.715</v>
       </c>
-      <c r="DI4">
+      <c r="DI4" t="n">
         <v>80772.54700000001</v>
       </c>
-      <c r="DJ4">
+      <c r="DJ4" t="n">
         <v>76599.73299999999</v>
       </c>
-      <c r="DK4">
+      <c r="DK4" t="n">
         <v>81093.829</v>
       </c>
-      <c r="DL4">
+      <c r="DL4" t="n">
         <v>82076.379</v>
       </c>
-      <c r="DM4">
+      <c r="DM4" t="n">
         <v>84091.705</v>
       </c>
-      <c r="DN4">
+      <c r="DN4" t="n">
         <v>79259.88400000001</v>
       </c>
-      <c r="DO4">
+      <c r="DO4" t="n">
         <v>66051.768</v>
       </c>
-      <c r="DP4">
+      <c r="DP4" t="n">
         <v>83985.50999999999</v>
       </c>
-      <c r="DQ4">
+      <c r="DQ4" t="n">
         <v>86236.38499999999</v>
       </c>
-      <c r="DR4">
+      <c r="DR4" t="n">
         <v>85426.14999999999</v>
       </c>
-      <c r="DS4">
+      <c r="DS4" t="n">
         <v>86876.21000000001</v>
       </c>
-      <c r="DT4">
+      <c r="DT4" t="n">
         <v>89268.82399999999</v>
       </c>
-      <c r="DU4">
+      <c r="DU4" t="n">
         <v>101099.509</v>
       </c>
-      <c r="DV4">
+      <c r="DV4" t="n">
         <v>97717.133</v>
       </c>
     </row>
-    <row r="5" spans="1:126">
-      <c r="A5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ConstructionRM</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>1338</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>1346</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>1583</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>1672</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>1624</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>1784</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>1949</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>2039</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>2023</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>2218</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>2425</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>2388</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>2484</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>2708</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>2892</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>2825</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>3129</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>3398</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>3591</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>3630</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>3691</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>4133</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>4406</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>4410</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>4398</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>4584</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>4723</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>4769</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>3897</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>3767</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>3445</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>3398</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>3310</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>3565</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>3571</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>3542</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>3291</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>3570</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>3554</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>3555</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>3286</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>3675</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>3632</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>3649</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>3402</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>3801</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>3764</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>3706</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" t="n">
         <v>3497</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" t="n">
         <v>3914</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" t="n">
         <v>3917</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" t="n">
         <v>3872</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" t="n">
         <v>3638</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" t="n">
         <v>3985</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" t="n">
         <v>3943</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" t="n">
         <v>3891</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" t="n">
         <v>3720.52452504105</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" t="n">
         <v>4100.46621624869</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" t="n">
         <v>4156.24571495238</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" t="n">
         <v>4129.31403098423</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>3759.37440064112</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>4190.0012168928</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" t="n">
         <v>4233.15167315954</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" t="n">
         <v>4268.11157829256</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" t="n">
         <v>4269.2381701793</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>4758.85666699481</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>4868.14573236124</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>4842.4229783127</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>4704.76619614949</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>5104.811750879</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" t="n">
         <v>5751.51592402082</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" t="n">
         <v>5595.06619998907</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" t="n">
         <v>5213</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" t="n">
         <v>5574</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" t="n">
         <v>6195</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" t="n">
         <v>6205</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ5" t="n">
         <v>6468</v>
       </c>
-      <c r="CA5">
+      <c r="CA5" t="n">
         <v>6870</v>
       </c>
-      <c r="CB5">
+      <c r="CB5" t="n">
         <v>7357</v>
       </c>
-      <c r="CC5">
+      <c r="CC5" t="n">
         <v>7518</v>
       </c>
-      <c r="CD5">
+      <c r="CD5" t="n">
         <v>7000</v>
       </c>
-      <c r="CE5">
+      <c r="CE5" t="n">
         <v>7315</v>
       </c>
-      <c r="CF5">
+      <c r="CF5" t="n">
         <v>8042</v>
       </c>
-      <c r="CG5">
+      <c r="CG5" t="n">
         <v>8536</v>
       </c>
-      <c r="CH5">
+      <c r="CH5" t="n">
         <v>8551</v>
       </c>
-      <c r="CI5">
+      <c r="CI5" t="n">
         <v>9321</v>
       </c>
-      <c r="CJ5">
+      <c r="CJ5" t="n">
         <v>9811</v>
       </c>
-      <c r="CK5">
+      <c r="CK5" t="n">
         <v>10226</v>
       </c>
-      <c r="CL5">
+      <c r="CL5" t="n">
         <v>9813</v>
       </c>
-      <c r="CM5">
+      <c r="CM5" t="n">
         <v>10401</v>
       </c>
-      <c r="CN5">
+      <c r="CN5" t="n">
         <v>11031</v>
       </c>
-      <c r="CO5">
+      <c r="CO5" t="n">
         <v>11447</v>
       </c>
-      <c r="CP5">
+      <c r="CP5" t="n">
         <v>11909</v>
       </c>
-      <c r="CQ5">
+      <c r="CQ5" t="n">
         <v>11656</v>
       </c>
-      <c r="CR5">
+      <c r="CR5" t="n">
         <v>12350</v>
       </c>
-      <c r="CS5">
+      <c r="CS5" t="n">
         <v>12735</v>
       </c>
-      <c r="CT5">
+      <c r="CT5" t="n">
         <v>13467</v>
       </c>
-      <c r="CU5">
+      <c r="CU5" t="n">
         <v>12691</v>
       </c>
-      <c r="CV5">
+      <c r="CV5" t="n">
         <v>13985</v>
       </c>
-      <c r="CW5">
+      <c r="CW5" t="n">
         <v>14107</v>
       </c>
-      <c r="CX5">
+      <c r="CX5" t="n">
         <v>16672.885</v>
       </c>
-      <c r="CY5">
+      <c r="CY5" t="n">
         <v>17655.222</v>
       </c>
-      <c r="CZ5">
+      <c r="CZ5" t="n">
         <v>16970.686</v>
       </c>
-      <c r="DA5">
+      <c r="DA5" t="n">
         <v>18166.391</v>
       </c>
-      <c r="DB5">
+      <c r="DB5" t="n">
         <v>16658.877</v>
       </c>
-      <c r="DC5">
+      <c r="DC5" t="n">
         <v>16041.191</v>
       </c>
-      <c r="DD5">
+      <c r="DD5" t="n">
         <v>17178.729</v>
       </c>
-      <c r="DE5">
+      <c r="DE5" t="n">
         <v>16672.885</v>
       </c>
-      <c r="DF5">
+      <c r="DF5" t="n">
         <v>17654.255</v>
       </c>
-      <c r="DG5">
+      <c r="DG5" t="n">
         <v>16978.772</v>
       </c>
-      <c r="DH5">
+      <c r="DH5" t="n">
         <v>18163.525</v>
       </c>
-      <c r="DI5">
+      <c r="DI5" t="n">
         <v>17251.057</v>
       </c>
-      <c r="DJ5">
+      <c r="DJ5" t="n">
         <v>17935.075</v>
       </c>
-      <c r="DK5">
+      <c r="DK5" t="n">
         <v>17375.842</v>
       </c>
-      <c r="DL5">
+      <c r="DL5" t="n">
         <v>18148.856</v>
       </c>
-      <c r="DM5">
+      <c r="DM5" t="n">
         <v>17607.517</v>
       </c>
-      <c r="DN5">
+      <c r="DN5" t="n">
         <v>16825.952</v>
       </c>
-      <c r="DO5">
+      <c r="DO5" t="n">
         <v>9697.843999999999</v>
       </c>
-      <c r="DP5">
+      <c r="DP5" t="n">
         <v>15938.233</v>
       </c>
-      <c r="DQ5">
+      <c r="DQ5" t="n">
         <v>15195.424</v>
       </c>
-      <c r="DR5">
+      <c r="DR5" t="n">
         <v>15084.768</v>
       </c>
-      <c r="DS5">
+      <c r="DS5" t="n">
         <v>13825.05</v>
       </c>
-      <c r="DT5">
+      <c r="DT5" t="n">
         <v>12920.725</v>
       </c>
-      <c r="DU5">
+      <c r="DU5" t="n">
         <v>13790.107</v>
       </c>
-      <c r="DV5">
+      <c r="DV5" t="n">
         <v>14793.521</v>
       </c>
     </row>
-    <row r="6" spans="1:126">
-      <c r="A6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Electricity and GasRM</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="n">
         <v>2813</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" t="n">
         <v>2977</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" t="n">
         <v>3019</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" t="n">
         <v>2868</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>2928</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>3074</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>3242</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>3129</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>3151</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>3287</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>3389</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>3313</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>3343</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>3481</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" t="n">
         <v>3691</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" t="n">
         <v>3425</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" t="n">
         <v>3351</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" t="n">
         <v>3733</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" t="n">
         <v>3842</v>
       </c>
-      <c r="BY6">
+      <c r="BY6" t="n">
         <v>3843</v>
       </c>
-      <c r="BZ6">
+      <c r="BZ6" t="n">
         <v>4306</v>
       </c>
-      <c r="CA6">
+      <c r="CA6" t="n">
         <v>4523</v>
       </c>
-      <c r="CB6">
+      <c r="CB6" t="n">
         <v>4414</v>
       </c>
-      <c r="CC6">
+      <c r="CC6" t="n">
         <v>4458</v>
       </c>
-      <c r="CD6">
+      <c r="CD6" t="n">
         <v>4417</v>
       </c>
-      <c r="CE6">
+      <c r="CE6" t="n">
         <v>4676</v>
       </c>
-      <c r="CF6">
+      <c r="CF6" t="n">
         <v>4876</v>
       </c>
-      <c r="CG6">
+      <c r="CG6" t="n">
         <v>4942</v>
       </c>
-      <c r="CH6">
+      <c r="CH6" t="n">
         <v>4963</v>
       </c>
-      <c r="CI6">
+      <c r="CI6" t="n">
         <v>5214</v>
       </c>
-      <c r="CJ6">
+      <c r="CJ6" t="n">
         <v>5220</v>
       </c>
-      <c r="CK6">
+      <c r="CK6" t="n">
         <v>5307</v>
       </c>
-      <c r="CL6">
+      <c r="CL6" t="n">
         <v>5310</v>
       </c>
-      <c r="CM6">
+      <c r="CM6" t="n">
         <v>5601</v>
       </c>
-      <c r="CN6">
+      <c r="CN6" t="n">
         <v>5575</v>
       </c>
-      <c r="CO6">
+      <c r="CO6" t="n">
         <v>5674</v>
       </c>
-      <c r="CP6">
+      <c r="CP6" t="n">
         <v>5967</v>
       </c>
-      <c r="CQ6">
+      <c r="CQ6" t="n">
         <v>6431</v>
       </c>
-      <c r="CR6">
+      <c r="CR6" t="n">
         <v>6505</v>
       </c>
-      <c r="CS6">
+      <c r="CS6" t="n">
         <v>6455</v>
       </c>
-      <c r="CT6">
+      <c r="CT6" t="n">
         <v>6164</v>
       </c>
-      <c r="CU6">
+      <c r="CU6" t="n">
         <v>6474</v>
       </c>
-      <c r="CV6">
+      <c r="CV6" t="n">
         <v>6479</v>
       </c>
-      <c r="CW6">
+      <c r="CW6" t="n">
         <v>6441</v>
       </c>
-      <c r="CX6">
+      <c r="CX6" t="n">
         <v>6430.607</v>
       </c>
-      <c r="CY6">
+      <c r="CY6" t="n">
         <v>6740.542</v>
       </c>
-      <c r="CZ6">
+      <c r="CZ6" t="n">
         <v>6912.699</v>
       </c>
-      <c r="DA6">
+      <c r="DA6" t="n">
         <v>6869.648</v>
       </c>
-      <c r="DB6">
+      <c r="DB6" t="n">
         <v>6694.954</v>
       </c>
-      <c r="DC6">
+      <c r="DC6" t="n">
         <v>7003.515</v>
       </c>
-      <c r="DD6">
+      <c r="DD6" t="n">
         <v>7229.043</v>
       </c>
-      <c r="DE6">
+      <c r="DE6" t="n">
         <v>7297.336</v>
       </c>
-      <c r="DF6">
+      <c r="DF6" t="n">
         <v>7117.316</v>
       </c>
-      <c r="DG6">
+      <c r="DG6" t="n">
         <v>7476.148</v>
       </c>
-      <c r="DH6">
+      <c r="DH6" t="n">
         <v>7740.895</v>
       </c>
-      <c r="DI6">
+      <c r="DI6" t="n">
         <v>7767.982</v>
       </c>
-      <c r="DJ6">
+      <c r="DJ6" t="n">
         <v>7749.294</v>
       </c>
-      <c r="DK6">
+      <c r="DK6" t="n">
         <v>8133.209</v>
       </c>
-      <c r="DL6">
+      <c r="DL6" t="n">
         <v>8346.927</v>
       </c>
-      <c r="DM6">
+      <c r="DM6" t="n">
         <v>8326.704</v>
       </c>
-      <c r="DN6">
+      <c r="DN6" t="n">
         <v>8260.691999999999</v>
       </c>
-      <c r="DO6">
+      <c r="DO6" t="n">
         <v>7067.288</v>
       </c>
-      <c r="DP6">
+      <c r="DP6" t="n">
         <v>7932.083</v>
       </c>
-      <c r="DQ6">
+      <c r="DQ6" t="n">
         <v>8141.709</v>
       </c>
-      <c r="DR6">
+      <c r="DR6" t="n">
         <v>8090.001</v>
       </c>
-      <c r="DS6">
+      <c r="DS6" t="n">
         <v>7552.891</v>
       </c>
-      <c r="DT6">
+      <c r="DT6" t="n">
         <v>7608.908</v>
       </c>
-      <c r="DU6">
+      <c r="DU6" t="n">
         <v>8502.01</v>
       </c>
-      <c r="DV6">
+      <c r="DV6" t="n">
         <v>8411.628000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:126">
-      <c r="A7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BF7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Water, Sewerage and Waste ManagementRM</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="n">
         <v>595</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" t="n">
         <v>596</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" t="n">
         <v>610</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" t="n">
         <v>597</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>598</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>617</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" t="n">
         <v>655</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" t="n">
         <v>636</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" t="n">
         <v>651</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>665</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>703</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>682</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" t="n">
         <v>717</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" t="n">
         <v>723</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" t="n">
         <v>741</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" t="n">
         <v>733</v>
       </c>
-      <c r="BV7">
+      <c r="BV7" t="n">
         <v>732</v>
       </c>
-      <c r="BW7">
+      <c r="BW7" t="n">
         <v>756</v>
       </c>
-      <c r="BX7">
+      <c r="BX7" t="n">
         <v>809</v>
       </c>
-      <c r="BY7">
+      <c r="BY7" t="n">
         <v>787</v>
       </c>
-      <c r="BZ7">
+      <c r="BZ7" t="n">
         <v>1082</v>
       </c>
-      <c r="CA7">
+      <c r="CA7" t="n">
         <v>1117</v>
       </c>
-      <c r="CB7">
+      <c r="CB7" t="n">
         <v>1125</v>
       </c>
-      <c r="CC7">
+      <c r="CC7" t="n">
         <v>1148</v>
       </c>
-      <c r="CD7">
+      <c r="CD7" t="n">
         <v>1132</v>
       </c>
-      <c r="CE7">
+      <c r="CE7" t="n">
         <v>1188</v>
       </c>
-      <c r="CF7">
+      <c r="CF7" t="n">
         <v>1214</v>
       </c>
-      <c r="CG7">
+      <c r="CG7" t="n">
         <v>1232</v>
       </c>
-      <c r="CH7">
+      <c r="CH7" t="n">
         <v>1205</v>
       </c>
-      <c r="CI7">
+      <c r="CI7" t="n">
         <v>1248</v>
       </c>
-      <c r="CJ7">
+      <c r="CJ7" t="n">
         <v>1254</v>
       </c>
-      <c r="CK7">
+      <c r="CK7" t="n">
         <v>1289</v>
       </c>
-      <c r="CL7">
+      <c r="CL7" t="n">
         <v>1264</v>
       </c>
-      <c r="CM7">
+      <c r="CM7" t="n">
         <v>1309</v>
       </c>
-      <c r="CN7">
+      <c r="CN7" t="n">
         <v>1332</v>
       </c>
-      <c r="CO7">
+      <c r="CO7" t="n">
         <v>1378</v>
       </c>
-      <c r="CP7">
+      <c r="CP7" t="n">
         <v>1232</v>
       </c>
-      <c r="CQ7">
+      <c r="CQ7" t="n">
         <v>1391</v>
       </c>
-      <c r="CR7">
+      <c r="CR7" t="n">
         <v>1471</v>
       </c>
-      <c r="CS7">
+      <c r="CS7" t="n">
         <v>1488</v>
       </c>
-      <c r="CT7">
+      <c r="CT7" t="n">
         <v>1303</v>
       </c>
-      <c r="CU7">
+      <c r="CU7" t="n">
         <v>1448</v>
       </c>
-      <c r="CV7">
+      <c r="CV7" t="n">
         <v>1560</v>
       </c>
-      <c r="CW7">
+      <c r="CW7" t="n">
         <v>1617</v>
       </c>
-      <c r="CX7">
+      <c r="CX7" t="n">
         <v>1472.874</v>
       </c>
-      <c r="CY7">
+      <c r="CY7" t="n">
         <v>1577.004</v>
       </c>
-      <c r="CZ7">
+      <c r="CZ7" t="n">
         <v>1708.712</v>
       </c>
-      <c r="DA7">
+      <c r="DA7" t="n">
         <v>1771.55</v>
       </c>
-      <c r="DB7">
+      <c r="DB7" t="n">
         <v>1620.368</v>
       </c>
-      <c r="DC7">
+      <c r="DC7" t="n">
         <v>1734.7</v>
       </c>
-      <c r="DD7">
+      <c r="DD7" t="n">
         <v>1884.772</v>
       </c>
-      <c r="DE7">
+      <c r="DE7" t="n">
         <v>1911.801</v>
       </c>
-      <c r="DF7">
+      <c r="DF7" t="n">
         <v>1750.312</v>
       </c>
-      <c r="DG7">
+      <c r="DG7" t="n">
         <v>1865.388</v>
       </c>
-      <c r="DH7">
+      <c r="DH7" t="n">
         <v>2022.977</v>
       </c>
-      <c r="DI7">
+      <c r="DI7" t="n">
         <v>2070.238</v>
       </c>
-      <c r="DJ7">
+      <c r="DJ7" t="n">
         <v>1924.544</v>
       </c>
-      <c r="DK7">
+      <c r="DK7" t="n">
         <v>2056.609</v>
       </c>
-      <c r="DL7">
+      <c r="DL7" t="n">
         <v>2161.567</v>
       </c>
-      <c r="DM7">
+      <c r="DM7" t="n">
         <v>2210.04</v>
       </c>
-      <c r="DN7">
+      <c r="DN7" t="n">
         <v>2057.788</v>
       </c>
-      <c r="DO7">
+      <c r="DO7" t="n">
         <v>2259.403</v>
       </c>
-      <c r="DP7">
+      <c r="DP7" t="n">
         <v>2379.502</v>
       </c>
-      <c r="DQ7">
+      <c r="DQ7" t="n">
         <v>2410.175</v>
       </c>
-      <c r="DR7">
+      <c r="DR7" t="n">
         <v>2258.128</v>
       </c>
-      <c r="DS7">
+      <c r="DS7" t="n">
         <v>2458.598</v>
       </c>
-      <c r="DT7">
+      <c r="DT7" t="n">
         <v>2566.477</v>
       </c>
-      <c r="DU7">
+      <c r="DU7" t="n">
         <v>2610.955</v>
       </c>
-      <c r="DV7">
+      <c r="DV7" t="n">
         <v>2386.507</v>
       </c>
     </row>
-    <row r="8" spans="1:126">
-      <c r="A8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Wholesale TradeRM</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="n">
         <v>6410</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" t="n">
         <v>7018</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" t="n">
         <v>7631</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" t="n">
         <v>7827</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" t="n">
         <v>7246</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" t="n">
         <v>7996</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" t="n">
         <v>8622</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" t="n">
         <v>8606</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" t="n">
         <v>8440</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" t="n">
         <v>8774</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" t="n">
         <v>9801</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" t="n">
         <v>10099</v>
       </c>
-      <c r="BR8">
+      <c r="BR8" t="n">
         <v>10058</v>
       </c>
-      <c r="BS8">
+      <c r="BS8" t="n">
         <v>11267</v>
       </c>
-      <c r="BT8">
+      <c r="BT8" t="n">
         <v>11855</v>
       </c>
-      <c r="BU8">
+      <c r="BU8" t="n">
         <v>11060</v>
       </c>
-      <c r="BV8">
+      <c r="BV8" t="n">
         <v>9404</v>
       </c>
-      <c r="BW8">
+      <c r="BW8" t="n">
         <v>10378</v>
       </c>
-      <c r="BX8">
+      <c r="BX8" t="n">
         <v>11218</v>
       </c>
-      <c r="BY8">
+      <c r="BY8" t="n">
         <v>11360</v>
       </c>
-      <c r="BZ8">
+      <c r="BZ8" t="n">
         <v>11086</v>
       </c>
-      <c r="CA8">
+      <c r="CA8" t="n">
         <v>11960</v>
       </c>
-      <c r="CB8">
+      <c r="CB8" t="n">
         <v>12757</v>
       </c>
-      <c r="CC8">
+      <c r="CC8" t="n">
         <v>13654</v>
       </c>
-      <c r="CD8">
+      <c r="CD8" t="n">
         <v>12751</v>
       </c>
-      <c r="CE8">
+      <c r="CE8" t="n">
         <v>14280</v>
       </c>
-      <c r="CF8">
+      <c r="CF8" t="n">
         <v>15450</v>
       </c>
-      <c r="CG8">
+      <c r="CG8" t="n">
         <v>15970</v>
       </c>
-      <c r="CH8">
+      <c r="CH8" t="n">
         <v>14129</v>
       </c>
-      <c r="CI8">
+      <c r="CI8" t="n">
         <v>15419</v>
       </c>
-      <c r="CJ8">
+      <c r="CJ8" t="n">
         <v>16178</v>
       </c>
-      <c r="CK8">
+      <c r="CK8" t="n">
         <v>15976</v>
       </c>
-      <c r="CL8">
+      <c r="CL8" t="n">
         <v>14729</v>
       </c>
-      <c r="CM8">
+      <c r="CM8" t="n">
         <v>15901</v>
       </c>
-      <c r="CN8">
+      <c r="CN8" t="n">
         <v>17203</v>
       </c>
-      <c r="CO8">
+      <c r="CO8" t="n">
         <v>18051</v>
       </c>
-      <c r="CP8">
+      <c r="CP8" t="n">
         <v>16675</v>
       </c>
-      <c r="CQ8">
+      <c r="CQ8" t="n">
         <v>18168</v>
       </c>
-      <c r="CR8">
+      <c r="CR8" t="n">
         <v>19614</v>
       </c>
-      <c r="CS8">
+      <c r="CS8" t="n">
         <v>20551</v>
       </c>
-      <c r="CT8">
+      <c r="CT8" t="n">
         <v>18219</v>
       </c>
-      <c r="CU8">
+      <c r="CU8" t="n">
         <v>19748</v>
       </c>
-      <c r="CV8">
+      <c r="CV8" t="n">
         <v>21421</v>
       </c>
-      <c r="CW8">
+      <c r="CW8" t="n">
         <v>22423</v>
       </c>
-      <c r="CX8">
+      <c r="CX8" t="n">
         <v>19493.527</v>
       </c>
-      <c r="CY8">
+      <c r="CY8" t="n">
         <v>21285.323</v>
       </c>
-      <c r="CZ8">
+      <c r="CZ8" t="n">
         <v>23240.03</v>
       </c>
-      <c r="DA8">
+      <c r="DA8" t="n">
         <v>24341.299</v>
       </c>
-      <c r="DB8">
+      <c r="DB8" t="n">
         <v>21355.183</v>
       </c>
-      <c r="DC8">
+      <c r="DC8" t="n">
         <v>23382.085</v>
       </c>
-      <c r="DD8">
+      <c r="DD8" t="n">
         <v>25552.5</v>
       </c>
-      <c r="DE8">
+      <c r="DE8" t="n">
         <v>26690.32</v>
       </c>
-      <c r="DF8">
+      <c r="DF8" t="n">
         <v>23159.268</v>
       </c>
-      <c r="DG8">
+      <c r="DG8" t="n">
         <v>25284.619</v>
       </c>
-      <c r="DH8">
+      <c r="DH8" t="n">
         <v>27685.615</v>
       </c>
-      <c r="DI8">
+      <c r="DI8" t="n">
         <v>28754.546</v>
       </c>
-      <c r="DJ8">
+      <c r="DJ8" t="n">
         <v>24763.844</v>
       </c>
-      <c r="DK8">
+      <c r="DK8" t="n">
         <v>27001.71</v>
       </c>
-      <c r="DL8">
+      <c r="DL8" t="n">
         <v>29553.085</v>
       </c>
-      <c r="DM8">
+      <c r="DM8" t="n">
         <v>30449.842</v>
       </c>
-      <c r="DN8">
+      <c r="DN8" t="n">
         <v>25773.573</v>
       </c>
-      <c r="DO8">
+      <c r="DO8" t="n">
         <v>21536.148</v>
       </c>
-      <c r="DP8">
+      <c r="DP8" t="n">
         <v>28379.818</v>
       </c>
-      <c r="DQ8">
+      <c r="DQ8" t="n">
         <v>30313.629</v>
       </c>
-      <c r="DR8">
+      <c r="DR8" t="n">
         <v>25789.31</v>
       </c>
-      <c r="DS8">
+      <c r="DS8" t="n">
         <v>25835.172</v>
       </c>
-      <c r="DT8">
+      <c r="DT8" t="n">
         <v>28153.68</v>
       </c>
-      <c r="DU8">
+      <c r="DU8" t="n">
         <v>31627.5</v>
       </c>
-      <c r="DV8">
+      <c r="DV8" t="n">
         <v>27708.453</v>
       </c>
     </row>
-    <row r="9" spans="1:126">
-      <c r="A9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BF9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Retail TradeRM</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="n">
         <v>4796</v>
       </c>
-      <c r="BG9">
+      <c r="BG9" t="n">
         <v>5040</v>
       </c>
-      <c r="BH9">
+      <c r="BH9" t="n">
         <v>5649</v>
       </c>
-      <c r="BI9">
+      <c r="BI9" t="n">
         <v>6358</v>
       </c>
-      <c r="BJ9">
+      <c r="BJ9" t="n">
         <v>5532</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" t="n">
         <v>6043</v>
       </c>
-      <c r="BL9">
+      <c r="BL9" t="n">
         <v>6626</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" t="n">
         <v>7744</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" t="n">
         <v>6983</v>
       </c>
-      <c r="BO9">
+      <c r="BO9" t="n">
         <v>7590</v>
       </c>
-      <c r="BP9">
+      <c r="BP9" t="n">
         <v>8356</v>
       </c>
-      <c r="BQ9">
+      <c r="BQ9" t="n">
         <v>9552</v>
       </c>
-      <c r="BR9">
+      <c r="BR9" t="n">
         <v>8890</v>
       </c>
-      <c r="BS9">
+      <c r="BS9" t="n">
         <v>9321</v>
       </c>
-      <c r="BT9">
+      <c r="BT9" t="n">
         <v>10193</v>
       </c>
-      <c r="BU9">
+      <c r="BU9" t="n">
         <v>11094</v>
       </c>
-      <c r="BV9">
+      <c r="BV9" t="n">
         <v>9479</v>
       </c>
-      <c r="BW9">
+      <c r="BW9" t="n">
         <v>9602</v>
       </c>
-      <c r="BX9">
+      <c r="BX9" t="n">
         <v>10442</v>
       </c>
-      <c r="BY9">
+      <c r="BY9" t="n">
         <v>11491</v>
       </c>
-      <c r="BZ9">
+      <c r="BZ9" t="n">
         <v>10765</v>
       </c>
-      <c r="CA9">
+      <c r="CA9" t="n">
         <v>10937</v>
       </c>
-      <c r="CB9">
+      <c r="CB9" t="n">
         <v>11799</v>
       </c>
-      <c r="CC9">
+      <c r="CC9" t="n">
         <v>13001</v>
       </c>
-      <c r="CD9">
+      <c r="CD9" t="n">
         <v>11881</v>
       </c>
-      <c r="CE9">
+      <c r="CE9" t="n">
         <v>11972</v>
       </c>
-      <c r="CF9">
+      <c r="CF9" t="n">
         <v>13021</v>
       </c>
-      <c r="CG9">
+      <c r="CG9" t="n">
         <v>14363</v>
       </c>
-      <c r="CH9">
+      <c r="CH9" t="n">
         <v>13102</v>
       </c>
-      <c r="CI9">
+      <c r="CI9" t="n">
         <v>13127</v>
       </c>
-      <c r="CJ9">
+      <c r="CJ9" t="n">
         <v>13879</v>
       </c>
-      <c r="CK9">
+      <c r="CK9" t="n">
         <v>15137</v>
       </c>
-      <c r="CL9">
+      <c r="CL9" t="n">
         <v>14268</v>
       </c>
-      <c r="CM9">
+      <c r="CM9" t="n">
         <v>14308</v>
       </c>
-      <c r="CN9">
+      <c r="CN9" t="n">
         <v>15354</v>
       </c>
-      <c r="CO9">
+      <c r="CO9" t="n">
         <v>17349</v>
       </c>
-      <c r="CP9">
+      <c r="CP9" t="n">
         <v>16388</v>
       </c>
-      <c r="CQ9">
+      <c r="CQ9" t="n">
         <v>16434</v>
       </c>
-      <c r="CR9">
+      <c r="CR9" t="n">
         <v>17605</v>
       </c>
-      <c r="CS9">
+      <c r="CS9" t="n">
         <v>20011</v>
       </c>
-      <c r="CT9">
+      <c r="CT9" t="n">
         <v>18934</v>
       </c>
-      <c r="CU9">
+      <c r="CU9" t="n">
         <v>18050</v>
       </c>
-      <c r="CV9">
+      <c r="CV9" t="n">
         <v>19182</v>
       </c>
-      <c r="CW9">
+      <c r="CW9" t="n">
         <v>22029</v>
       </c>
-      <c r="CX9">
+      <c r="CX9" t="n">
         <v>20947.434</v>
       </c>
-      <c r="CY9">
+      <c r="CY9" t="n">
         <v>20034.851</v>
       </c>
-      <c r="CZ9">
+      <c r="CZ9" t="n">
         <v>21271.913</v>
       </c>
-      <c r="DA9">
+      <c r="DA9" t="n">
         <v>24431.938</v>
       </c>
-      <c r="DB9">
+      <c r="DB9" t="n">
         <v>23331.257</v>
       </c>
-      <c r="DC9">
+      <c r="DC9" t="n">
         <v>23034.393</v>
       </c>
-      <c r="DD9">
+      <c r="DD9" t="n">
         <v>24092.334</v>
       </c>
-      <c r="DE9">
+      <c r="DE9" t="n">
         <v>27038.866</v>
       </c>
-      <c r="DF9">
+      <c r="DF9" t="n">
         <v>25395.219</v>
       </c>
-      <c r="DG9">
+      <c r="DG9" t="n">
         <v>25134.284</v>
       </c>
-      <c r="DH9">
+      <c r="DH9" t="n">
         <v>27042.662</v>
       </c>
-      <c r="DI9">
+      <c r="DI9" t="n">
         <v>30117.89</v>
       </c>
-      <c r="DJ9">
+      <c r="DJ9" t="n">
         <v>27535.171</v>
       </c>
-      <c r="DK9">
+      <c r="DK9" t="n">
         <v>27219.318</v>
       </c>
-      <c r="DL9">
+      <c r="DL9" t="n">
         <v>29241.062</v>
       </c>
-      <c r="DM9">
+      <c r="DM9" t="n">
         <v>32578.259</v>
       </c>
-      <c r="DN9">
+      <c r="DN9" t="n">
         <v>28422.885</v>
       </c>
-      <c r="DO9">
+      <c r="DO9" t="n">
         <v>22170.076</v>
       </c>
-      <c r="DP9">
+      <c r="DP9" t="n">
         <v>28929.482</v>
       </c>
-      <c r="DQ9">
+      <c r="DQ9" t="n">
         <v>31734.297</v>
       </c>
-      <c r="DR9">
+      <c r="DR9" t="n">
         <v>28750.321</v>
       </c>
-      <c r="DS9">
+      <c r="DS9" t="n">
         <v>27258.132</v>
       </c>
-      <c r="DT9">
+      <c r="DT9" t="n">
         <v>27160.828</v>
       </c>
-      <c r="DU9">
+      <c r="DU9" t="n">
         <v>33028.822</v>
       </c>
-      <c r="DV9">
+      <c r="DV9" t="n">
         <v>31788.601</v>
       </c>
     </row>
-    <row r="10" spans="1:126">
-      <c r="A10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>AccomodationRM</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="n">
         <v>876</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" t="n">
         <v>912</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" t="n">
         <v>1085</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" t="n">
         <v>1053</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" t="n">
         <v>994</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" t="n">
         <v>1016</v>
       </c>
-      <c r="BL10">
+      <c r="BL10" t="n">
         <v>1146</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" t="n">
         <v>1143</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" t="n">
         <v>1056</v>
       </c>
-      <c r="BO10">
+      <c r="BO10" t="n">
         <v>1119</v>
       </c>
-      <c r="BP10">
+      <c r="BP10" t="n">
         <v>1306</v>
       </c>
-      <c r="BQ10">
+      <c r="BQ10" t="n">
         <v>1287</v>
       </c>
-      <c r="BR10">
+      <c r="BR10" t="n">
         <v>1198</v>
       </c>
-      <c r="BS10">
+      <c r="BS10" t="n">
         <v>1210</v>
       </c>
-      <c r="BT10">
+      <c r="BT10" t="n">
         <v>1348</v>
       </c>
-      <c r="BU10">
+      <c r="BU10" t="n">
         <v>1365</v>
       </c>
-      <c r="BV10">
+      <c r="BV10" t="n">
         <v>1200</v>
       </c>
-      <c r="BW10">
+      <c r="BW10" t="n">
         <v>1216</v>
       </c>
-      <c r="BX10">
+      <c r="BX10" t="n">
         <v>1357</v>
       </c>
-      <c r="BY10">
+      <c r="BY10" t="n">
         <v>1387</v>
       </c>
-      <c r="BZ10">
+      <c r="BZ10" t="n">
         <v>1311</v>
       </c>
-      <c r="CA10">
+      <c r="CA10" t="n">
         <v>1343</v>
       </c>
-      <c r="CB10">
+      <c r="CB10" t="n">
         <v>1447</v>
       </c>
-      <c r="CC10">
+      <c r="CC10" t="n">
         <v>1454</v>
       </c>
-      <c r="CD10">
+      <c r="CD10" t="n">
         <v>1361</v>
       </c>
-      <c r="CE10">
+      <c r="CE10" t="n">
         <v>1413</v>
       </c>
-      <c r="CF10">
+      <c r="CF10" t="n">
         <v>1528</v>
       </c>
-      <c r="CG10">
+      <c r="CG10" t="n">
         <v>1527</v>
       </c>
-      <c r="CH10">
+      <c r="CH10" t="n">
         <v>1448</v>
       </c>
-      <c r="CI10">
+      <c r="CI10" t="n">
         <v>1507</v>
       </c>
-      <c r="CJ10">
+      <c r="CJ10" t="n">
         <v>1573</v>
       </c>
-      <c r="CK10">
+      <c r="CK10" t="n">
         <v>1582</v>
       </c>
-      <c r="CL10">
+      <c r="CL10" t="n">
         <v>1495</v>
       </c>
-      <c r="CM10">
+      <c r="CM10" t="n">
         <v>1556</v>
       </c>
-      <c r="CN10">
+      <c r="CN10" t="n">
         <v>1687</v>
       </c>
-      <c r="CO10">
+      <c r="CO10" t="n">
         <v>1690</v>
       </c>
-      <c r="CP10">
+      <c r="CP10" t="n">
         <v>1628</v>
       </c>
-      <c r="CQ10">
+      <c r="CQ10" t="n">
         <v>1672</v>
       </c>
-      <c r="CR10">
+      <c r="CR10" t="n">
         <v>1781</v>
       </c>
-      <c r="CS10">
+      <c r="CS10" t="n">
         <v>1780</v>
       </c>
-      <c r="CT10">
+      <c r="CT10" t="n">
         <v>1727</v>
       </c>
-      <c r="CU10">
+      <c r="CU10" t="n">
         <v>1798</v>
       </c>
-      <c r="CV10">
+      <c r="CV10" t="n">
         <v>1903</v>
       </c>
-      <c r="CW10">
+      <c r="CW10" t="n">
         <v>1903</v>
       </c>
-      <c r="CX10">
+      <c r="CX10" t="n">
         <v>1966.109</v>
       </c>
-      <c r="CY10">
+      <c r="CY10" t="n">
         <v>2046.905</v>
       </c>
-      <c r="CZ10">
+      <c r="CZ10" t="n">
         <v>2177.866</v>
       </c>
-      <c r="DA10">
+      <c r="DA10" t="n">
         <v>2217.385</v>
       </c>
-      <c r="DB10">
+      <c r="DB10" t="n">
         <v>2105.106</v>
       </c>
-      <c r="DC10">
+      <c r="DC10" t="n">
         <v>2196.041</v>
       </c>
-      <c r="DD10">
+      <c r="DD10" t="n">
         <v>2344.614</v>
       </c>
-      <c r="DE10">
+      <c r="DE10" t="n">
         <v>2391.467</v>
       </c>
-      <c r="DF10">
+      <c r="DF10" t="n">
         <v>2275.376</v>
       </c>
-      <c r="DG10">
+      <c r="DG10" t="n">
         <v>2359.408</v>
       </c>
-      <c r="DH10">
+      <c r="DH10" t="n">
         <v>2527.164</v>
       </c>
-      <c r="DI10">
+      <c r="DI10" t="n">
         <v>2576.13</v>
       </c>
-      <c r="DJ10">
+      <c r="DJ10" t="n">
         <v>2452.296</v>
       </c>
-      <c r="DK10">
+      <c r="DK10" t="n">
         <v>2556.337</v>
       </c>
-      <c r="DL10">
+      <c r="DL10" t="n">
         <v>2729.268</v>
       </c>
-      <c r="DM10">
+      <c r="DM10" t="n">
         <v>2789.758</v>
       </c>
-      <c r="DN10">
+      <c r="DN10" t="n">
         <v>2366.727</v>
       </c>
-      <c r="DO10">
+      <c r="DO10" t="n">
         <v>538.827</v>
       </c>
-      <c r="DP10">
+      <c r="DP10" t="n">
         <v>1245.992</v>
       </c>
-      <c r="DQ10">
+      <c r="DQ10" t="n">
         <v>1096.951</v>
       </c>
-      <c r="DR10">
+      <c r="DR10" t="n">
         <v>979.073</v>
       </c>
-      <c r="DS10">
+      <c r="DS10" t="n">
         <v>797.89</v>
       </c>
-      <c r="DT10">
+      <c r="DT10" t="n">
         <v>606.6369999999999</v>
       </c>
-      <c r="DU10">
+      <c r="DU10" t="n">
         <v>1636.574</v>
       </c>
-      <c r="DV10">
+      <c r="DV10" t="n">
         <v>1830.956</v>
       </c>
     </row>
-    <row r="11" spans="1:126">
-      <c r="A11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BF11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Food and BeverageRM</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="n">
         <v>1929</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" t="n">
         <v>1914</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" t="n">
         <v>1910</v>
       </c>
-      <c r="BI11">
+      <c r="BI11" t="n">
         <v>2058</v>
       </c>
-      <c r="BJ11">
+      <c r="BJ11" t="n">
         <v>2114</v>
       </c>
-      <c r="BK11">
+      <c r="BK11" t="n">
         <v>2134</v>
       </c>
-      <c r="BL11">
+      <c r="BL11" t="n">
         <v>2181</v>
       </c>
-      <c r="BM11">
+      <c r="BM11" t="n">
         <v>2414</v>
       </c>
-      <c r="BN11">
+      <c r="BN11" t="n">
         <v>2460</v>
       </c>
-      <c r="BO11">
+      <c r="BO11" t="n">
         <v>2523</v>
       </c>
-      <c r="BP11">
+      <c r="BP11" t="n">
         <v>2638</v>
       </c>
-      <c r="BQ11">
+      <c r="BQ11" t="n">
         <v>2947</v>
       </c>
-      <c r="BR11">
+      <c r="BR11" t="n">
         <v>2959</v>
       </c>
-      <c r="BS11">
+      <c r="BS11" t="n">
         <v>2993</v>
       </c>
-      <c r="BT11">
+      <c r="BT11" t="n">
         <v>3085</v>
       </c>
-      <c r="BU11">
+      <c r="BU11" t="n">
         <v>3488</v>
       </c>
-      <c r="BV11">
+      <c r="BV11" t="n">
         <v>3348</v>
       </c>
-      <c r="BW11">
+      <c r="BW11" t="n">
         <v>3398</v>
       </c>
-      <c r="BX11">
+      <c r="BX11" t="n">
         <v>3495</v>
       </c>
-      <c r="BY11">
+      <c r="BY11" t="n">
         <v>3831</v>
       </c>
-      <c r="BZ11">
+      <c r="BZ11" t="n">
         <v>3867</v>
       </c>
-      <c r="CA11">
+      <c r="CA11" t="n">
         <v>3949</v>
       </c>
-      <c r="CB11">
+      <c r="CB11" t="n">
         <v>4084</v>
       </c>
-      <c r="CC11">
+      <c r="CC11" t="n">
         <v>4408</v>
       </c>
-      <c r="CD11">
+      <c r="CD11" t="n">
         <v>4258</v>
       </c>
-      <c r="CE11">
+      <c r="CE11" t="n">
         <v>4377</v>
       </c>
-      <c r="CF11">
+      <c r="CF11" t="n">
         <v>4552</v>
       </c>
-      <c r="CG11">
+      <c r="CG11" t="n">
         <v>4953</v>
       </c>
-      <c r="CH11">
+      <c r="CH11" t="n">
         <v>4714</v>
       </c>
-      <c r="CI11">
+      <c r="CI11" t="n">
         <v>4858</v>
       </c>
-      <c r="CJ11">
+      <c r="CJ11" t="n">
         <v>4917</v>
       </c>
-      <c r="CK11">
+      <c r="CK11" t="n">
         <v>5356</v>
       </c>
-      <c r="CL11">
+      <c r="CL11" t="n">
         <v>5253</v>
       </c>
-      <c r="CM11">
+      <c r="CM11" t="n">
         <v>5311</v>
       </c>
-      <c r="CN11">
+      <c r="CN11" t="n">
         <v>5400</v>
       </c>
-      <c r="CO11">
+      <c r="CO11" t="n">
         <v>5926</v>
       </c>
-      <c r="CP11">
+      <c r="CP11" t="n">
         <v>5836</v>
       </c>
-      <c r="CQ11">
+      <c r="CQ11" t="n">
         <v>5892</v>
       </c>
-      <c r="CR11">
+      <c r="CR11" t="n">
         <v>6036</v>
       </c>
-      <c r="CS11">
+      <c r="CS11" t="n">
         <v>6717</v>
       </c>
-      <c r="CT11">
+      <c r="CT11" t="n">
         <v>6545</v>
       </c>
-      <c r="CU11">
+      <c r="CU11" t="n">
         <v>6586</v>
       </c>
-      <c r="CV11">
+      <c r="CV11" t="n">
         <v>6735</v>
       </c>
-      <c r="CW11">
+      <c r="CW11" t="n">
         <v>7490</v>
       </c>
-      <c r="CX11">
+      <c r="CX11" t="n">
         <v>7563.056</v>
       </c>
-      <c r="CY11">
+      <c r="CY11" t="n">
         <v>7642.568</v>
       </c>
-      <c r="CZ11">
+      <c r="CZ11" t="n">
         <v>7871.819</v>
       </c>
-      <c r="DA11">
+      <c r="DA11" t="n">
         <v>8667.737999999999</v>
       </c>
-      <c r="DB11">
+      <c r="DB11" t="n">
         <v>8453.864</v>
       </c>
-      <c r="DC11">
+      <c r="DC11" t="n">
         <v>8588.382</v>
       </c>
-      <c r="DD11">
+      <c r="DD11" t="n">
         <v>8868.161</v>
       </c>
-      <c r="DE11">
+      <c r="DE11" t="n">
         <v>9791.646000000001</v>
       </c>
-      <c r="DF11">
+      <c r="DF11" t="n">
         <v>9522.893</v>
       </c>
-      <c r="DG11">
+      <c r="DG11" t="n">
         <v>9774.421</v>
       </c>
-      <c r="DH11">
+      <c r="DH11" t="n">
         <v>10127.074</v>
       </c>
-      <c r="DI11">
+      <c r="DI11" t="n">
         <v>11171.473</v>
       </c>
-      <c r="DJ11">
+      <c r="DJ11" t="n">
         <v>10853.973</v>
       </c>
-      <c r="DK11">
+      <c r="DK11" t="n">
         <v>11130.033</v>
       </c>
-      <c r="DL11">
+      <c r="DL11" t="n">
         <v>11540.235</v>
       </c>
-      <c r="DM11">
+      <c r="DM11" t="n">
         <v>12753.176</v>
       </c>
-      <c r="DN11">
+      <c r="DN11" t="n">
         <v>11500.682</v>
       </c>
-      <c r="DO11">
+      <c r="DO11" t="n">
         <v>7836.357</v>
       </c>
-      <c r="DP11">
+      <c r="DP11" t="n">
         <v>9148.151</v>
       </c>
-      <c r="DQ11">
+      <c r="DQ11" t="n">
         <v>9311.182000000001</v>
       </c>
-      <c r="DR11">
+      <c r="DR11" t="n">
         <v>9091.489</v>
       </c>
-      <c r="DS11">
+      <c r="DS11" t="n">
         <v>8702.108</v>
       </c>
-      <c r="DT11">
+      <c r="DT11" t="n">
         <v>8503.824000000001</v>
       </c>
-      <c r="DU11">
+      <c r="DU11" t="n">
         <v>9629.954</v>
       </c>
-      <c r="DV11">
+      <c r="DV11" t="n">
         <v>10911.073</v>
       </c>
     </row>
-    <row r="12" spans="1:126">
-      <c r="A12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Transport and StorageRM</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
         <v>3275</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" t="n">
         <v>3326</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" t="n">
         <v>3670</v>
       </c>
-      <c r="AO12">
+      <c r="AO12" t="n">
         <v>3600</v>
       </c>
-      <c r="AP12">
+      <c r="AP12" t="n">
         <v>3545</v>
       </c>
-      <c r="AQ12">
+      <c r="AQ12" t="n">
         <v>3584</v>
       </c>
-      <c r="AR12">
+      <c r="AR12" t="n">
         <v>3603</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" t="n">
         <v>3440</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" t="n">
         <v>3584</v>
       </c>
-      <c r="AU12">
+      <c r="AU12" t="n">
         <v>3739</v>
       </c>
-      <c r="AV12">
+      <c r="AV12" t="n">
         <v>3966</v>
       </c>
-      <c r="AW12">
+      <c r="AW12" t="n">
         <v>3840</v>
       </c>
-      <c r="AX12">
+      <c r="AX12" t="n">
         <v>3861</v>
       </c>
-      <c r="AY12">
+      <c r="AY12" t="n">
         <v>3661</v>
       </c>
-      <c r="AZ12">
+      <c r="AZ12" t="n">
         <v>4082</v>
       </c>
-      <c r="BA12">
+      <c r="BA12" t="n">
         <v>4137</v>
       </c>
-      <c r="BB12">
+      <c r="BB12" t="n">
         <v>4216</v>
       </c>
-      <c r="BC12">
+      <c r="BC12" t="n">
         <v>4255</v>
       </c>
-      <c r="BD12">
+      <c r="BD12" t="n">
         <v>4459</v>
       </c>
-      <c r="BE12">
+      <c r="BE12" t="n">
         <v>4476</v>
       </c>
-      <c r="BF12">
+      <c r="BF12" t="n">
         <v>4768</v>
       </c>
-      <c r="BG12">
+      <c r="BG12" t="n">
         <v>4739</v>
       </c>
-      <c r="BH12">
+      <c r="BH12" t="n">
         <v>4903</v>
       </c>
-      <c r="BI12">
+      <c r="BI12" t="n">
         <v>5025</v>
       </c>
-      <c r="BJ12">
+      <c r="BJ12" t="n">
         <v>5146</v>
       </c>
-      <c r="BK12">
+      <c r="BK12" t="n">
         <v>5090</v>
       </c>
-      <c r="BL12">
+      <c r="BL12" t="n">
         <v>5259</v>
       </c>
-      <c r="BM12">
+      <c r="BM12" t="n">
         <v>5405</v>
       </c>
-      <c r="BN12">
+      <c r="BN12" t="n">
         <v>5495</v>
       </c>
-      <c r="BO12">
+      <c r="BO12" t="n">
         <v>5724</v>
       </c>
-      <c r="BP12">
+      <c r="BP12" t="n">
         <v>6028</v>
       </c>
-      <c r="BQ12">
+      <c r="BQ12" t="n">
         <v>6155</v>
       </c>
-      <c r="BR12">
+      <c r="BR12" t="n">
         <v>6216</v>
       </c>
-      <c r="BS12">
+      <c r="BS12" t="n">
         <v>6362</v>
       </c>
-      <c r="BT12">
+      <c r="BT12" t="n">
         <v>6535</v>
       </c>
-      <c r="BU12">
+      <c r="BU12" t="n">
         <v>6361</v>
       </c>
-      <c r="BV12">
+      <c r="BV12" t="n">
         <v>6031</v>
       </c>
-      <c r="BW12">
+      <c r="BW12" t="n">
         <v>5907</v>
       </c>
-      <c r="BX12">
+      <c r="BX12" t="n">
         <v>6215</v>
       </c>
-      <c r="BY12">
+      <c r="BY12" t="n">
         <v>6416</v>
       </c>
-      <c r="BZ12">
+      <c r="BZ12" t="n">
         <v>7149</v>
       </c>
-      <c r="CA12">
+      <c r="CA12" t="n">
         <v>7057</v>
       </c>
-      <c r="CB12">
+      <c r="CB12" t="n">
         <v>7287</v>
       </c>
-      <c r="CC12">
+      <c r="CC12" t="n">
         <v>7505</v>
       </c>
-      <c r="CD12">
+      <c r="CD12" t="n">
         <v>7524</v>
       </c>
-      <c r="CE12">
+      <c r="CE12" t="n">
         <v>7561</v>
       </c>
-      <c r="CF12">
+      <c r="CF12" t="n">
         <v>7861</v>
       </c>
-      <c r="CG12">
+      <c r="CG12" t="n">
         <v>8087</v>
       </c>
-      <c r="CH12">
+      <c r="CH12" t="n">
         <v>8064</v>
       </c>
-      <c r="CI12">
+      <c r="CI12" t="n">
         <v>8085</v>
       </c>
-      <c r="CJ12">
+      <c r="CJ12" t="n">
         <v>8240</v>
       </c>
-      <c r="CK12">
+      <c r="CK12" t="n">
         <v>8565</v>
       </c>
-      <c r="CL12">
+      <c r="CL12" t="n">
         <v>8493</v>
       </c>
-      <c r="CM12">
+      <c r="CM12" t="n">
         <v>8536</v>
       </c>
-      <c r="CN12">
+      <c r="CN12" t="n">
         <v>8748</v>
       </c>
-      <c r="CO12">
+      <c r="CO12" t="n">
         <v>9099</v>
       </c>
-      <c r="CP12">
+      <c r="CP12" t="n">
         <v>9000</v>
       </c>
-      <c r="CQ12">
+      <c r="CQ12" t="n">
         <v>9074</v>
       </c>
-      <c r="CR12">
+      <c r="CR12" t="n">
         <v>9339</v>
       </c>
-      <c r="CS12">
+      <c r="CS12" t="n">
         <v>9780</v>
       </c>
-      <c r="CT12">
+      <c r="CT12" t="n">
         <v>9645</v>
       </c>
-      <c r="CU12">
+      <c r="CU12" t="n">
         <v>9719</v>
       </c>
-      <c r="CV12">
+      <c r="CV12" t="n">
         <v>10039</v>
       </c>
-      <c r="CW12">
+      <c r="CW12" t="n">
         <v>10569</v>
       </c>
-      <c r="CX12">
+      <c r="CX12" t="n">
         <v>10941.652</v>
       </c>
-      <c r="CY12">
+      <c r="CY12" t="n">
         <v>11043.74</v>
       </c>
-      <c r="CZ12">
+      <c r="CZ12" t="n">
         <v>11304.902</v>
       </c>
-      <c r="DA12">
+      <c r="DA12" t="n">
         <v>11944.186</v>
       </c>
-      <c r="DB12">
+      <c r="DB12" t="n">
         <v>11787.901</v>
       </c>
-      <c r="DC12">
+      <c r="DC12" t="n">
         <v>11938.337</v>
       </c>
-      <c r="DD12">
+      <c r="DD12" t="n">
         <v>12207.21</v>
       </c>
-      <c r="DE12">
+      <c r="DE12" t="n">
         <v>12852.425</v>
       </c>
-      <c r="DF12">
+      <c r="DF12" t="n">
         <v>12682.05</v>
       </c>
-      <c r="DG12">
+      <c r="DG12" t="n">
         <v>12884.938</v>
       </c>
-      <c r="DH12">
+      <c r="DH12" t="n">
         <v>13248.063</v>
       </c>
-      <c r="DI12">
+      <c r="DI12" t="n">
         <v>13892.113</v>
       </c>
-      <c r="DJ12">
+      <c r="DJ12" t="n">
         <v>13693.181</v>
       </c>
-      <c r="DK12">
+      <c r="DK12" t="n">
         <v>14013.165</v>
       </c>
-      <c r="DL12">
+      <c r="DL12" t="n">
         <v>14331.935</v>
       </c>
-      <c r="DM12">
+      <c r="DM12" t="n">
         <v>15068.265</v>
       </c>
-      <c r="DN12">
+      <c r="DN12" t="n">
         <v>13585.306</v>
       </c>
-      <c r="DO12">
+      <c r="DO12" t="n">
         <v>7893.907</v>
       </c>
-      <c r="DP12">
+      <c r="DP12" t="n">
         <v>12241.201</v>
       </c>
-      <c r="DQ12">
+      <c r="DQ12" t="n">
         <v>11835.002</v>
       </c>
-      <c r="DR12">
+      <c r="DR12" t="n">
         <v>11500.855</v>
       </c>
-      <c r="DS12">
+      <c r="DS12" t="n">
         <v>10976.825</v>
       </c>
-      <c r="DT12">
+      <c r="DT12" t="n">
         <v>10845.531</v>
       </c>
-      <c r="DU12">
+      <c r="DU12" t="n">
         <v>13394.821</v>
       </c>
-      <c r="DV12">
+      <c r="DV12" t="n">
         <v>14637.214</v>
       </c>
     </row>
-    <row r="13" spans="1:126">
-      <c r="A13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL13">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Infor &amp; CommunicationRM</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
         <v>2587</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" t="n">
         <v>2689</v>
       </c>
-      <c r="AN13">
+      <c r="AN13" t="n">
         <v>2854</v>
       </c>
-      <c r="AO13">
+      <c r="AO13" t="n">
         <v>2896</v>
       </c>
-      <c r="AP13">
+      <c r="AP13" t="n">
         <v>2955</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ13" t="n">
         <v>3042</v>
       </c>
-      <c r="AR13">
+      <c r="AR13" t="n">
         <v>3210</v>
       </c>
-      <c r="AS13">
+      <c r="AS13" t="n">
         <v>3109</v>
       </c>
-      <c r="AT13">
+      <c r="AT13" t="n">
         <v>3098</v>
       </c>
-      <c r="AU13">
+      <c r="AU13" t="n">
         <v>3301</v>
       </c>
-      <c r="AV13">
+      <c r="AV13" t="n">
         <v>3402</v>
       </c>
-      <c r="AW13">
+      <c r="AW13" t="n">
         <v>3267</v>
       </c>
-      <c r="AX13">
+      <c r="AX13" t="n">
         <v>3498</v>
       </c>
-      <c r="AY13">
+      <c r="AY13" t="n">
         <v>3653</v>
       </c>
-      <c r="AZ13">
+      <c r="AZ13" t="n">
         <v>3661</v>
       </c>
-      <c r="BA13">
+      <c r="BA13" t="n">
         <v>3618</v>
       </c>
-      <c r="BB13">
+      <c r="BB13" t="n">
         <v>3877</v>
       </c>
-      <c r="BC13">
+      <c r="BC13" t="n">
         <v>3927</v>
       </c>
-      <c r="BD13">
+      <c r="BD13" t="n">
         <v>4031</v>
       </c>
-      <c r="BE13">
+      <c r="BE13" t="n">
         <v>4079</v>
       </c>
-      <c r="BF13">
+      <c r="BF13" t="n">
         <v>4332</v>
       </c>
-      <c r="BG13">
+      <c r="BG13" t="n">
         <v>4183</v>
       </c>
-      <c r="BH13">
+      <c r="BH13" t="n">
         <v>4226</v>
       </c>
-      <c r="BI13">
+      <c r="BI13" t="n">
         <v>4257</v>
       </c>
-      <c r="BJ13">
+      <c r="BJ13" t="n">
         <v>4598</v>
       </c>
-      <c r="BK13">
+      <c r="BK13" t="n">
         <v>4558</v>
       </c>
-      <c r="BL13">
+      <c r="BL13" t="n">
         <v>4601</v>
       </c>
-      <c r="BM13">
+      <c r="BM13" t="n">
         <v>4632</v>
       </c>
-      <c r="BN13">
+      <c r="BN13" t="n">
         <v>4835</v>
       </c>
-      <c r="BO13">
+      <c r="BO13" t="n">
         <v>4893</v>
       </c>
-      <c r="BP13">
+      <c r="BP13" t="n">
         <v>4910</v>
       </c>
-      <c r="BQ13">
+      <c r="BQ13" t="n">
         <v>4969</v>
       </c>
-      <c r="BR13">
+      <c r="BR13" t="n">
         <v>5192</v>
       </c>
-      <c r="BS13">
+      <c r="BS13" t="n">
         <v>5275</v>
       </c>
-      <c r="BT13">
+      <c r="BT13" t="n">
         <v>5264</v>
       </c>
-      <c r="BU13">
+      <c r="BU13" t="n">
         <v>5277</v>
       </c>
-      <c r="BV13">
+      <c r="BV13" t="n">
         <v>5473</v>
       </c>
-      <c r="BW13">
+      <c r="BW13" t="n">
         <v>5591</v>
       </c>
-      <c r="BX13">
+      <c r="BX13" t="n">
         <v>5596</v>
       </c>
-      <c r="BY13">
+      <c r="BY13" t="n">
         <v>5672</v>
       </c>
-      <c r="BZ13">
+      <c r="BZ13" t="n">
         <v>9668</v>
       </c>
-      <c r="CA13">
+      <c r="CA13" t="n">
         <v>9785</v>
       </c>
-      <c r="CB13">
+      <c r="CB13" t="n">
         <v>9976</v>
       </c>
-      <c r="CC13">
+      <c r="CC13" t="n">
         <v>10084</v>
       </c>
-      <c r="CD13">
+      <c r="CD13" t="n">
         <v>10323</v>
       </c>
-      <c r="CE13">
+      <c r="CE13" t="n">
         <v>10557</v>
       </c>
-      <c r="CF13">
+      <c r="CF13" t="n">
         <v>10807</v>
       </c>
-      <c r="CG13">
+      <c r="CG13" t="n">
         <v>10980</v>
       </c>
-      <c r="CH13">
+      <c r="CH13" t="n">
         <v>11372</v>
       </c>
-      <c r="CI13">
+      <c r="CI13" t="n">
         <v>11689</v>
       </c>
-      <c r="CJ13">
+      <c r="CJ13" t="n">
         <v>11833</v>
       </c>
-      <c r="CK13">
+      <c r="CK13" t="n">
         <v>11772</v>
       </c>
-      <c r="CL13">
+      <c r="CL13" t="n">
         <v>12315</v>
       </c>
-      <c r="CM13">
+      <c r="CM13" t="n">
         <v>12773</v>
       </c>
-      <c r="CN13">
+      <c r="CN13" t="n">
         <v>13075</v>
       </c>
-      <c r="CO13">
+      <c r="CO13" t="n">
         <v>12934</v>
       </c>
-      <c r="CP13">
+      <c r="CP13" t="n">
         <v>13610</v>
       </c>
-      <c r="CQ13">
+      <c r="CQ13" t="n">
         <v>14103</v>
       </c>
-      <c r="CR13">
+      <c r="CR13" t="n">
         <v>14439</v>
       </c>
-      <c r="CS13">
+      <c r="CS13" t="n">
         <v>14273</v>
       </c>
-      <c r="CT13">
+      <c r="CT13" t="n">
         <v>14998</v>
       </c>
-      <c r="CU13">
+      <c r="CU13" t="n">
         <v>15542</v>
       </c>
-      <c r="CV13">
+      <c r="CV13" t="n">
         <v>15925</v>
       </c>
-      <c r="CW13">
+      <c r="CW13" t="n">
         <v>15692</v>
       </c>
-      <c r="CX13">
+      <c r="CX13" t="n">
         <v>16345.079</v>
       </c>
-      <c r="CY13">
+      <c r="CY13" t="n">
         <v>17015.068</v>
       </c>
-      <c r="CZ13">
+      <c r="CZ13" t="n">
         <v>17288.385</v>
       </c>
-      <c r="DA13">
+      <c r="DA13" t="n">
         <v>17081.718</v>
       </c>
-      <c r="DB13">
+      <c r="DB13" t="n">
         <v>17849.14</v>
       </c>
-      <c r="DC13">
+      <c r="DC13" t="n">
         <v>18632.142</v>
       </c>
-      <c r="DD13">
+      <c r="DD13" t="n">
         <v>18973.14</v>
       </c>
-      <c r="DE13">
+      <c r="DE13" t="n">
         <v>18584.87</v>
       </c>
-      <c r="DF13">
+      <c r="DF13" t="n">
         <v>19390.428</v>
       </c>
-      <c r="DG13">
+      <c r="DG13" t="n">
         <v>20272.493</v>
       </c>
-      <c r="DH13">
+      <c r="DH13" t="n">
         <v>20627.126</v>
       </c>
-      <c r="DI13">
+      <c r="DI13" t="n">
         <v>20069.003</v>
       </c>
-      <c r="DJ13">
+      <c r="DJ13" t="n">
         <v>20787.188</v>
       </c>
-      <c r="DK13">
+      <c r="DK13" t="n">
         <v>21591.745</v>
       </c>
-      <c r="DL13">
+      <c r="DL13" t="n">
         <v>21882.378</v>
       </c>
-      <c r="DM13">
+      <c r="DM13" t="n">
         <v>21434.048</v>
       </c>
-      <c r="DN13">
+      <c r="DN13" t="n">
         <v>22227.889</v>
       </c>
-      <c r="DO13">
+      <c r="DO13" t="n">
         <v>22604.166</v>
       </c>
-      <c r="DP13">
+      <c r="DP13" t="n">
         <v>23003.856</v>
       </c>
-      <c r="DQ13">
+      <c r="DQ13" t="n">
         <v>22907.787</v>
       </c>
-      <c r="DR13">
+      <c r="DR13" t="n">
         <v>23586.681</v>
       </c>
-      <c r="DS13">
+      <c r="DS13" t="n">
         <v>23922.555</v>
       </c>
-      <c r="DT13">
+      <c r="DT13" t="n">
         <v>24473.102</v>
       </c>
-      <c r="DU13">
+      <c r="DU13" t="n">
         <v>24521.917</v>
       </c>
-      <c r="DV13">
+      <c r="DV13" t="n">
         <v>25143.78</v>
       </c>
     </row>
-    <row r="14" spans="1:126">
-      <c r="A14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BF14">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>FinanceRM</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="n">
         <v>7211</v>
       </c>
-      <c r="BG14">
+      <c r="BG14" t="n">
         <v>7443</v>
       </c>
-      <c r="BH14">
+      <c r="BH14" t="n">
         <v>7736</v>
       </c>
-      <c r="BI14">
+      <c r="BI14" t="n">
         <v>7751</v>
       </c>
-      <c r="BJ14">
+      <c r="BJ14" t="n">
         <v>8008</v>
       </c>
-      <c r="BK14">
+      <c r="BK14" t="n">
         <v>8536</v>
       </c>
-      <c r="BL14">
+      <c r="BL14" t="n">
         <v>8809</v>
       </c>
-      <c r="BM14">
+      <c r="BM14" t="n">
         <v>8658</v>
       </c>
-      <c r="BN14">
+      <c r="BN14" t="n">
         <v>9369</v>
       </c>
-      <c r="BO14">
+      <c r="BO14" t="n">
         <v>9598</v>
       </c>
-      <c r="BP14">
+      <c r="BP14" t="n">
         <v>9552</v>
       </c>
-      <c r="BQ14">
+      <c r="BQ14" t="n">
         <v>10104</v>
       </c>
-      <c r="BR14">
+      <c r="BR14" t="n">
         <v>10441</v>
       </c>
-      <c r="BS14">
+      <c r="BS14" t="n">
         <v>10339</v>
       </c>
-      <c r="BT14">
+      <c r="BT14" t="n">
         <v>11019</v>
       </c>
-      <c r="BU14">
+      <c r="BU14" t="n">
         <v>10767</v>
       </c>
-      <c r="BV14">
+      <c r="BV14" t="n">
         <v>10456</v>
       </c>
-      <c r="BW14">
+      <c r="BW14" t="n">
         <v>11244</v>
       </c>
-      <c r="BX14">
+      <c r="BX14" t="n">
         <v>11135</v>
       </c>
-      <c r="BY14">
+      <c r="BY14" t="n">
         <v>11698</v>
       </c>
-      <c r="BZ14">
+      <c r="BZ14" t="n">
         <v>11487</v>
       </c>
-      <c r="CA14">
+      <c r="CA14" t="n">
         <v>11712</v>
       </c>
-      <c r="CB14">
+      <c r="CB14" t="n">
         <v>11991</v>
       </c>
-      <c r="CC14">
+      <c r="CC14" t="n">
         <v>12495</v>
       </c>
-      <c r="CD14">
+      <c r="CD14" t="n">
         <v>12276</v>
       </c>
-      <c r="CE14">
+      <c r="CE14" t="n">
         <v>12560</v>
       </c>
-      <c r="CF14">
+      <c r="CF14" t="n">
         <v>11640</v>
       </c>
-      <c r="CG14">
+      <c r="CG14" t="n">
         <v>12638</v>
       </c>
-      <c r="CH14">
+      <c r="CH14" t="n">
         <v>12545</v>
       </c>
-      <c r="CI14">
+      <c r="CI14" t="n">
         <v>13059</v>
       </c>
-      <c r="CJ14">
+      <c r="CJ14" t="n">
         <v>12975</v>
       </c>
-      <c r="CK14">
+      <c r="CK14" t="n">
         <v>13650</v>
       </c>
-      <c r="CL14">
+      <c r="CL14" t="n">
         <v>13066</v>
       </c>
-      <c r="CM14">
+      <c r="CM14" t="n">
         <v>13405</v>
       </c>
-      <c r="CN14">
+      <c r="CN14" t="n">
         <v>13478</v>
       </c>
-      <c r="CO14">
+      <c r="CO14" t="n">
         <v>14068</v>
       </c>
-      <c r="CP14">
+      <c r="CP14" t="n">
         <v>13600</v>
       </c>
-      <c r="CQ14">
+      <c r="CQ14" t="n">
         <v>13582</v>
       </c>
-      <c r="CR14">
+      <c r="CR14" t="n">
         <v>14260</v>
       </c>
-      <c r="CS14">
+      <c r="CS14" t="n">
         <v>14637</v>
       </c>
-      <c r="CT14">
+      <c r="CT14" t="n">
         <v>13939</v>
       </c>
-      <c r="CU14">
+      <c r="CU14" t="n">
         <v>14235</v>
       </c>
-      <c r="CV14">
+      <c r="CV14" t="n">
         <v>14207</v>
       </c>
-      <c r="CW14">
+      <c r="CW14" t="n">
         <v>14672</v>
       </c>
-      <c r="CX14">
+      <c r="CX14" t="n">
         <v>15063.157</v>
       </c>
-      <c r="CY14">
+      <c r="CY14" t="n">
         <v>15057.939</v>
       </c>
-      <c r="CZ14">
+      <c r="CZ14" t="n">
         <v>15370.122</v>
       </c>
-      <c r="DA14">
+      <c r="DA14" t="n">
         <v>16015.554</v>
       </c>
-      <c r="DB14">
+      <c r="DB14" t="n">
         <v>15913.712</v>
       </c>
-      <c r="DC14">
+      <c r="DC14" t="n">
         <v>16118.957</v>
       </c>
-      <c r="DD14">
+      <c r="DD14" t="n">
         <v>16421.374</v>
       </c>
-      <c r="DE14">
+      <c r="DE14" t="n">
         <v>17057.223</v>
       </c>
-      <c r="DF14">
+      <c r="DF14" t="n">
         <v>17163.932</v>
       </c>
-      <c r="DG14">
+      <c r="DG14" t="n">
         <v>16501.05</v>
       </c>
-      <c r="DH14">
+      <c r="DH14" t="n">
         <v>17027.615</v>
       </c>
-      <c r="DI14">
+      <c r="DI14" t="n">
         <v>17497.884</v>
       </c>
-      <c r="DJ14">
+      <c r="DJ14" t="n">
         <v>17434.937</v>
       </c>
-      <c r="DK14">
+      <c r="DK14" t="n">
         <v>17286.684</v>
       </c>
-      <c r="DL14">
+      <c r="DL14" t="n">
         <v>17705.674</v>
       </c>
-      <c r="DM14">
+      <c r="DM14" t="n">
         <v>18483.014</v>
       </c>
-      <c r="DN14">
+      <c r="DN14" t="n">
         <v>18103.731</v>
       </c>
-      <c r="DO14">
+      <c r="DO14" t="n">
         <v>15626.479</v>
       </c>
-      <c r="DP14">
+      <c r="DP14" t="n">
         <v>19068.444</v>
       </c>
-      <c r="DQ14">
+      <c r="DQ14" t="n">
         <v>19557.66</v>
       </c>
-      <c r="DR14">
+      <c r="DR14" t="n">
         <v>20066.712</v>
       </c>
-      <c r="DS14">
+      <c r="DS14" t="n">
         <v>20040.505</v>
       </c>
-      <c r="DT14">
+      <c r="DT14" t="n">
         <v>19211.706</v>
       </c>
-      <c r="DU14">
+      <c r="DU14" t="n">
         <v>19927.373</v>
       </c>
-      <c r="DV14">
+      <c r="DV14" t="n">
         <v>19766.462</v>
       </c>
     </row>
-    <row r="15" spans="1:126">
-      <c r="A15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BF15">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>InsuranceRM</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="n">
         <v>2470</v>
       </c>
-      <c r="BG15">
+      <c r="BG15" t="n">
         <v>2599</v>
       </c>
-      <c r="BH15">
+      <c r="BH15" t="n">
         <v>2589</v>
       </c>
-      <c r="BI15">
+      <c r="BI15" t="n">
         <v>2932</v>
       </c>
-      <c r="BJ15">
+      <c r="BJ15" t="n">
         <v>2516</v>
       </c>
-      <c r="BK15">
+      <c r="BK15" t="n">
         <v>2707</v>
       </c>
-      <c r="BL15">
+      <c r="BL15" t="n">
         <v>2767</v>
       </c>
-      <c r="BM15">
+      <c r="BM15" t="n">
         <v>2989</v>
       </c>
-      <c r="BN15">
+      <c r="BN15" t="n">
         <v>2649</v>
       </c>
-      <c r="BO15">
+      <c r="BO15" t="n">
         <v>2715</v>
       </c>
-      <c r="BP15">
+      <c r="BP15" t="n">
         <v>2670</v>
       </c>
-      <c r="BQ15">
+      <c r="BQ15" t="n">
         <v>3101</v>
       </c>
-      <c r="BR15">
+      <c r="BR15" t="n">
         <v>2968</v>
       </c>
-      <c r="BS15">
+      <c r="BS15" t="n">
         <v>3072</v>
       </c>
-      <c r="BT15">
+      <c r="BT15" t="n">
         <v>3453</v>
       </c>
-      <c r="BU15">
+      <c r="BU15" t="n">
         <v>3217</v>
       </c>
-      <c r="BV15">
+      <c r="BV15" t="n">
         <v>2961</v>
       </c>
-      <c r="BW15">
+      <c r="BW15" t="n">
         <v>2889</v>
       </c>
-      <c r="BX15">
+      <c r="BX15" t="n">
         <v>3515</v>
       </c>
-      <c r="BY15">
+      <c r="BY15" t="n">
         <v>3562</v>
       </c>
-      <c r="BZ15">
+      <c r="BZ15" t="n">
         <v>3369</v>
       </c>
-      <c r="CA15">
+      <c r="CA15" t="n">
         <v>3456</v>
       </c>
-      <c r="CB15">
+      <c r="CB15" t="n">
         <v>3643</v>
       </c>
-      <c r="CC15">
+      <c r="CC15" t="n">
         <v>3424</v>
       </c>
-      <c r="CD15">
+      <c r="CD15" t="n">
         <v>3739</v>
       </c>
-      <c r="CE15">
+      <c r="CE15" t="n">
         <v>3675</v>
       </c>
-      <c r="CF15">
+      <c r="CF15" t="n">
         <v>3830</v>
       </c>
-      <c r="CG15">
+      <c r="CG15" t="n">
         <v>3984</v>
       </c>
-      <c r="CH15">
+      <c r="CH15" t="n">
         <v>3984</v>
       </c>
-      <c r="CI15">
+      <c r="CI15" t="n">
         <v>4316</v>
       </c>
-      <c r="CJ15">
+      <c r="CJ15" t="n">
         <v>4591</v>
       </c>
-      <c r="CK15">
+      <c r="CK15" t="n">
         <v>4933</v>
       </c>
-      <c r="CL15">
+      <c r="CL15" t="n">
         <v>4664</v>
       </c>
-      <c r="CM15">
+      <c r="CM15" t="n">
         <v>4384</v>
       </c>
-      <c r="CN15">
+      <c r="CN15" t="n">
         <v>4519</v>
       </c>
-      <c r="CO15">
+      <c r="CO15" t="n">
         <v>4806</v>
       </c>
-      <c r="CP15">
+      <c r="CP15" t="n">
         <v>4805</v>
       </c>
-      <c r="CQ15">
+      <c r="CQ15" t="n">
         <v>4556</v>
       </c>
-      <c r="CR15">
+      <c r="CR15" t="n">
         <v>4883</v>
       </c>
-      <c r="CS15">
+      <c r="CS15" t="n">
         <v>5056</v>
       </c>
-      <c r="CT15">
+      <c r="CT15" t="n">
         <v>5035</v>
       </c>
-      <c r="CU15">
+      <c r="CU15" t="n">
         <v>4438</v>
       </c>
-      <c r="CV15">
+      <c r="CV15" t="n">
         <v>4746</v>
       </c>
-      <c r="CW15">
+      <c r="CW15" t="n">
         <v>5041</v>
       </c>
-      <c r="CX15">
+      <c r="CX15" t="n">
         <v>4854.656</v>
       </c>
-      <c r="CY15">
+      <c r="CY15" t="n">
         <v>4759.143</v>
       </c>
-      <c r="CZ15">
+      <c r="CZ15" t="n">
         <v>5016.217</v>
       </c>
-      <c r="DA15">
+      <c r="DA15" t="n">
         <v>5319.853</v>
       </c>
-      <c r="DB15">
+      <c r="DB15" t="n">
         <v>4985.316</v>
       </c>
-      <c r="DC15">
+      <c r="DC15" t="n">
         <v>4935.404</v>
       </c>
-      <c r="DD15">
+      <c r="DD15" t="n">
         <v>5091.807</v>
       </c>
-      <c r="DE15">
+      <c r="DE15" t="n">
         <v>5742.937</v>
       </c>
-      <c r="DF15">
+      <c r="DF15" t="n">
         <v>5470.72</v>
       </c>
-      <c r="DG15">
+      <c r="DG15" t="n">
         <v>5557.201</v>
       </c>
-      <c r="DH15">
+      <c r="DH15" t="n">
         <v>5627.756</v>
       </c>
-      <c r="DI15">
+      <c r="DI15" t="n">
         <v>6108.833</v>
       </c>
-      <c r="DJ15">
+      <c r="DJ15" t="n">
         <v>6124.237</v>
       </c>
-      <c r="DK15">
+      <c r="DK15" t="n">
         <v>5731.527</v>
       </c>
-      <c r="DL15">
+      <c r="DL15" t="n">
         <v>5906.044</v>
       </c>
-      <c r="DM15">
+      <c r="DM15" t="n">
         <v>6354.563</v>
       </c>
-      <c r="DN15">
+      <c r="DN15" t="n">
         <v>6610.686</v>
       </c>
-      <c r="DO15">
+      <c r="DO15" t="n">
         <v>6009.126</v>
       </c>
-      <c r="DP15">
+      <c r="DP15" t="n">
         <v>5878.522</v>
       </c>
-      <c r="DQ15">
+      <c r="DQ15" t="n">
         <v>6783.304</v>
       </c>
-      <c r="DR15">
+      <c r="DR15" t="n">
         <v>7354.119</v>
       </c>
-      <c r="DS15">
+      <c r="DS15" t="n">
         <v>6636.62</v>
       </c>
-      <c r="DT15">
+      <c r="DT15" t="n">
         <v>6874.766</v>
       </c>
-      <c r="DU15">
+      <c r="DU15" t="n">
         <v>7562.217</v>
       </c>
-      <c r="DV15">
+      <c r="DV15" t="n">
         <v>7506.342</v>
       </c>
     </row>
-    <row r="16" spans="1:126">
-      <c r="A16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Government ServicesRM</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>3235.303136</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>3842.313589</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>3820.41115</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>4335.118467</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>3712.463415</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>3426.167247</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>4080.111498</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>4899.888502</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>3505.954704</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>4494.69338</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>4816.972125</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>4458.710801</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>4094.191638</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>4178.672474</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>4693.379791</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>5240.940767</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>3754.703833</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>5084.494774</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>4766.909408</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>4859.212544</v>
       </c>
-      <c r="V16">
+      <c r="V16" t="n">
         <v>4036.30662</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="n">
         <v>4491.56446</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="n">
         <v>4964.031359</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" t="n">
         <v>5287.874564</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" t="n">
         <v>4683.993031</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" t="n">
         <v>5170.54007</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" t="n">
         <v>5168.97561</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" t="n">
         <v>5378.61324</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" t="n">
         <v>4755.958188</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" t="n">
         <v>5125.170732</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" t="n">
         <v>5342.630662</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" t="n">
         <v>5395.8223</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" t="n">
         <v>5253.456446</v>
       </c>
-      <c r="AI16">
+      <c r="AI16" t="n">
         <v>5411.466899</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" t="n">
         <v>5581.993031</v>
       </c>
-      <c r="AK16">
+      <c r="AK16" t="n">
         <v>5740.003484</v>
       </c>
-      <c r="AL16">
+      <c r="AL16" t="n">
         <v>5388</v>
       </c>
-      <c r="AM16">
+      <c r="AM16" t="n">
         <v>5568</v>
       </c>
-      <c r="AN16">
+      <c r="AN16" t="n">
         <v>5754</v>
       </c>
-      <c r="AO16">
+      <c r="AO16" t="n">
         <v>5866</v>
       </c>
-      <c r="AP16">
+      <c r="AP16" t="n">
         <v>5656</v>
       </c>
-      <c r="AQ16">
+      <c r="AQ16" t="n">
         <v>6027</v>
       </c>
-      <c r="AR16">
+      <c r="AR16" t="n">
         <v>6127</v>
       </c>
-      <c r="AS16">
+      <c r="AS16" t="n">
         <v>6294</v>
       </c>
-      <c r="AT16">
+      <c r="AT16" t="n">
         <v>6440</v>
       </c>
-      <c r="AU16">
+      <c r="AU16" t="n">
         <v>6662</v>
       </c>
-      <c r="AV16">
+      <c r="AV16" t="n">
         <v>6889</v>
       </c>
-      <c r="AW16">
+      <c r="AW16" t="n">
         <v>7460</v>
       </c>
-      <c r="AX16">
+      <c r="AX16" t="n">
         <v>6984</v>
       </c>
-      <c r="AY16">
+      <c r="AY16" t="n">
         <v>7376</v>
       </c>
-      <c r="AZ16">
+      <c r="AZ16" t="n">
         <v>7433</v>
       </c>
-      <c r="BA16">
+      <c r="BA16" t="n">
         <v>7775</v>
       </c>
-      <c r="BB16">
+      <c r="BB16" t="n">
         <v>7547</v>
       </c>
-      <c r="BC16">
+      <c r="BC16" t="n">
         <v>7887</v>
       </c>
-      <c r="BD16">
+      <c r="BD16" t="n">
         <v>7999</v>
       </c>
-      <c r="BE16">
+      <c r="BE16" t="n">
         <v>8393</v>
       </c>
-      <c r="BF16">
+      <c r="BF16" t="n">
         <v>8341</v>
       </c>
-      <c r="BG16">
+      <c r="BG16" t="n">
         <v>8794</v>
       </c>
-      <c r="BH16">
+      <c r="BH16" t="n">
         <v>9089</v>
       </c>
-      <c r="BI16">
+      <c r="BI16" t="n">
         <v>9432</v>
       </c>
-      <c r="BJ16">
+      <c r="BJ16" t="n">
         <v>9357</v>
       </c>
-      <c r="BK16">
+      <c r="BK16" t="n">
         <v>9965</v>
       </c>
-      <c r="BL16">
+      <c r="BL16" t="n">
         <v>10053</v>
       </c>
-      <c r="BM16">
+      <c r="BM16" t="n">
         <v>10670</v>
       </c>
-      <c r="BN16">
+      <c r="BN16" t="n">
         <v>9961</v>
       </c>
-      <c r="BO16">
+      <c r="BO16" t="n">
         <v>10244</v>
       </c>
-      <c r="BP16">
+      <c r="BP16" t="n">
         <v>12586</v>
       </c>
-      <c r="BQ16">
+      <c r="BQ16" t="n">
         <v>13419</v>
       </c>
-      <c r="BR16">
+      <c r="BR16" t="n">
         <v>12549</v>
       </c>
-      <c r="BS16">
+      <c r="BS16" t="n">
         <v>13035</v>
       </c>
-      <c r="BT16">
+      <c r="BT16" t="n">
         <v>13595</v>
       </c>
-      <c r="BU16">
+      <c r="BU16" t="n">
         <v>15496</v>
       </c>
-      <c r="BV16">
+      <c r="BV16" t="n">
         <v>12982</v>
       </c>
-      <c r="BW16">
+      <c r="BW16" t="n">
         <v>13281</v>
       </c>
-      <c r="BX16">
+      <c r="BX16" t="n">
         <v>14558</v>
       </c>
-      <c r="BY16">
+      <c r="BY16" t="n">
         <v>15767</v>
       </c>
-      <c r="BZ16">
+      <c r="BZ16" t="n">
         <v>14975</v>
       </c>
-      <c r="CA16">
+      <c r="CA16" t="n">
         <v>15424</v>
       </c>
-      <c r="CB16">
+      <c r="CB16" t="n">
         <v>15968</v>
       </c>
-      <c r="CC16">
+      <c r="CC16" t="n">
         <v>17992</v>
       </c>
-      <c r="CD16">
+      <c r="CD16" t="n">
         <v>17161</v>
       </c>
-      <c r="CE16">
+      <c r="CE16" t="n">
         <v>17522</v>
       </c>
-      <c r="CF16">
+      <c r="CF16" t="n">
         <v>17807</v>
       </c>
-      <c r="CG16">
+      <c r="CG16" t="n">
         <v>19900</v>
       </c>
-      <c r="CH16">
+      <c r="CH16" t="n">
         <v>19831</v>
       </c>
-      <c r="CI16">
+      <c r="CI16" t="n">
         <v>20506</v>
       </c>
-      <c r="CJ16">
+      <c r="CJ16" t="n">
         <v>21331</v>
       </c>
-      <c r="CK16">
+      <c r="CK16" t="n">
         <v>23892</v>
       </c>
-      <c r="CL16">
+      <c r="CL16" t="n">
         <v>20616</v>
       </c>
-      <c r="CM16">
+      <c r="CM16" t="n">
         <v>21411</v>
       </c>
-      <c r="CN16">
+      <c r="CN16" t="n">
         <v>22630</v>
       </c>
-      <c r="CO16">
+      <c r="CO16" t="n">
         <v>25139</v>
       </c>
-      <c r="CP16">
+      <c r="CP16" t="n">
         <v>22214</v>
       </c>
-      <c r="CQ16">
+      <c r="CQ16" t="n">
         <v>22894</v>
       </c>
-      <c r="CR16">
+      <c r="CR16" t="n">
         <v>23977</v>
       </c>
-      <c r="CS16">
+      <c r="CS16" t="n">
         <v>26345</v>
       </c>
-      <c r="CT16">
+      <c r="CT16" t="n">
         <v>22702</v>
       </c>
-      <c r="CU16">
+      <c r="CU16" t="n">
         <v>23439</v>
       </c>
-      <c r="CV16">
+      <c r="CV16" t="n">
         <v>24348</v>
       </c>
-      <c r="CW16">
+      <c r="CW16" t="n">
         <v>27156</v>
       </c>
-      <c r="CX16">
+      <c r="CX16" t="n">
         <v>24472.632</v>
       </c>
-      <c r="CY16">
+      <c r="CY16" t="n">
         <v>25149.073</v>
       </c>
-      <c r="CZ16">
+      <c r="CZ16" t="n">
         <v>26956.553</v>
       </c>
-      <c r="DA16">
+      <c r="DA16" t="n">
         <v>29642.789</v>
       </c>
-      <c r="DB16">
+      <c r="DB16" t="n">
         <v>26409.707</v>
       </c>
-      <c r="DC16">
+      <c r="DC16" t="n">
         <v>26989.554</v>
       </c>
-      <c r="DD16">
+      <c r="DD16" t="n">
         <v>28568.721</v>
       </c>
-      <c r="DE16">
+      <c r="DE16" t="n">
         <v>30905.743</v>
       </c>
-      <c r="DF16">
+      <c r="DF16" t="n">
         <v>27739.962</v>
       </c>
-      <c r="DG16">
+      <c r="DG16" t="n">
         <v>28269.939</v>
       </c>
-      <c r="DH16">
+      <c r="DH16" t="n">
         <v>29735.536</v>
       </c>
-      <c r="DI16">
+      <c r="DI16" t="n">
         <v>32478.502</v>
       </c>
-      <c r="DJ16">
+      <c r="DJ16" t="n">
         <v>28855.588</v>
       </c>
-      <c r="DK16">
+      <c r="DK16" t="n">
         <v>29232.789</v>
       </c>
-      <c r="DL16">
+      <c r="DL16" t="n">
         <v>30507.612</v>
       </c>
-      <c r="DM16">
+      <c r="DM16" t="n">
         <v>33656.585</v>
       </c>
-      <c r="DN16">
+      <c r="DN16" t="n">
         <v>30165.82</v>
       </c>
-      <c r="DO16">
+      <c r="DO16" t="n">
         <v>30228.665</v>
       </c>
-      <c r="DP16">
+      <c r="DP16" t="n">
         <v>32100.409</v>
       </c>
-      <c r="DQ16">
+      <c r="DQ16" t="n">
         <v>35352.697</v>
       </c>
-      <c r="DR16">
+      <c r="DR16" t="n">
         <v>31830.39</v>
       </c>
-      <c r="DS16">
+      <c r="DS16" t="n">
         <v>31972.277</v>
       </c>
-      <c r="DT16">
+      <c r="DT16" t="n">
         <v>33756.609</v>
       </c>
-      <c r="DU16">
+      <c r="DU16" t="n">
         <v>37238.558</v>
       </c>
-      <c r="DV16">
+      <c r="DV16" t="n">
         <v>33639.632</v>
       </c>
     </row>
-    <row r="17" spans="1:126">
-      <c r="A17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Other ServicesRM</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>2867.62634</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>2875.68147</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>2871.653905</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>2925.354773</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>3026.0439</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>3109.280245</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>3187.146503</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>3282.465544</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>3357.646759</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>3404.635018</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>3545.599796</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>3567.080143</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>3623.466054</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="n">
         <v>3811.419091</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="n">
         <v>3973.864216</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="n">
         <v>3934.931087</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="n">
         <v>4108.116386</v>
       </c>
-      <c r="S17">
+      <c r="S17" t="n">
         <v>4269.218989</v>
       </c>
-      <c r="T17">
+      <c r="T17" t="n">
         <v>4365.880551</v>
       </c>
-      <c r="U17">
+      <c r="U17" t="n">
         <v>4414.211332</v>
       </c>
-      <c r="V17">
+      <c r="V17" t="n">
         <v>4521.613068</v>
       </c>
-      <c r="W17">
+      <c r="W17" t="n">
         <v>4633.042369</v>
       </c>
-      <c r="X17">
+      <c r="X17" t="n">
         <v>4686.743236</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" t="n">
         <v>4674.660541</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" t="n">
         <v>4799.515059</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" t="n">
         <v>4975.385401</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" t="n">
         <v>5029.086269</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" t="n">
         <v>5012.976008</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" t="n">
         <v>5078.759571</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" t="n">
         <v>5192.873915</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" t="n">
         <v>4999.550791</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" t="n">
         <v>4914.971924</v>
       </c>
-      <c r="AH17">
+      <c r="AH17" t="n">
         <v>5128.432874</v>
       </c>
-      <c r="AI17">
+      <c r="AI17" t="n">
         <v>5110.980092</v>
       </c>
-      <c r="AJ17">
+      <c r="AJ17" t="n">
         <v>5282.822869</v>
       </c>
-      <c r="AK17">
+      <c r="AK17" t="n">
         <v>5215.696784</v>
       </c>
-      <c r="AL17">
+      <c r="AL17" t="n">
         <v>5260</v>
       </c>
-      <c r="AM17">
+      <c r="AM17" t="n">
         <v>5245</v>
       </c>
-      <c r="AN17">
+      <c r="AN17" t="n">
         <v>5351</v>
       </c>
-      <c r="AO17">
+      <c r="AO17" t="n">
         <v>5468</v>
       </c>
-      <c r="AP17">
+      <c r="AP17" t="n">
         <v>5545</v>
       </c>
-      <c r="AQ17">
+      <c r="AQ17" t="n">
         <v>5597</v>
       </c>
-      <c r="AR17">
+      <c r="AR17" t="n">
         <v>5667</v>
       </c>
-      <c r="AS17">
+      <c r="AS17" t="n">
         <v>5785</v>
       </c>
-      <c r="AT17">
+      <c r="AT17" t="n">
         <v>5854</v>
       </c>
-      <c r="AU17">
+      <c r="AU17" t="n">
         <v>5851</v>
       </c>
-      <c r="AV17">
+      <c r="AV17" t="n">
         <v>5994</v>
       </c>
-      <c r="AW17">
+      <c r="AW17" t="n">
         <v>6111</v>
       </c>
-      <c r="AX17">
+      <c r="AX17" t="n">
         <v>6145</v>
       </c>
-      <c r="AY17">
+      <c r="AY17" t="n">
         <v>6121</v>
       </c>
-      <c r="AZ17">
+      <c r="AZ17" t="n">
         <v>6280</v>
       </c>
-      <c r="BA17">
+      <c r="BA17" t="n">
         <v>6345</v>
       </c>
-      <c r="BB17">
+      <c r="BB17" t="n">
         <v>6382</v>
       </c>
-      <c r="BC17">
+      <c r="BC17" t="n">
         <v>6495</v>
       </c>
-      <c r="BD17">
+      <c r="BD17" t="n">
         <v>6589</v>
       </c>
-      <c r="BE17">
+      <c r="BE17" t="n">
         <v>6633</v>
       </c>
-      <c r="BF17">
+      <c r="BF17" t="n">
         <v>6616</v>
       </c>
-      <c r="BG17">
+      <c r="BG17" t="n">
         <v>6821</v>
       </c>
-      <c r="BH17">
+      <c r="BH17" t="n">
         <v>7005</v>
       </c>
-      <c r="BI17">
+      <c r="BI17" t="n">
         <v>7058</v>
       </c>
-      <c r="BJ17">
+      <c r="BJ17" t="n">
         <v>6976</v>
       </c>
-      <c r="BK17">
+      <c r="BK17" t="n">
         <v>7167</v>
       </c>
-      <c r="BL17">
+      <c r="BL17" t="n">
         <v>7249</v>
       </c>
-      <c r="BM17">
+      <c r="BM17" t="n">
         <v>7371</v>
       </c>
-      <c r="BN17">
+      <c r="BN17" t="n">
         <v>7323</v>
       </c>
-      <c r="BO17">
+      <c r="BO17" t="n">
         <v>7663</v>
       </c>
-      <c r="BP17">
+      <c r="BP17" t="n">
         <v>7854</v>
       </c>
-      <c r="BQ17">
+      <c r="BQ17" t="n">
         <v>7971</v>
       </c>
-      <c r="BR17">
+      <c r="BR17" t="n">
         <v>7816</v>
       </c>
-      <c r="BS17">
+      <c r="BS17" t="n">
         <v>8223</v>
       </c>
-      <c r="BT17">
+      <c r="BT17" t="n">
         <v>8426</v>
       </c>
-      <c r="BU17">
+      <c r="BU17" t="n">
         <v>8592</v>
       </c>
-      <c r="BV17">
+      <c r="BV17" t="n">
         <v>8354</v>
       </c>
-      <c r="BW17">
+      <c r="BW17" t="n">
         <v>8749</v>
       </c>
-      <c r="BX17">
+      <c r="BX17" t="n">
         <v>8892</v>
       </c>
-      <c r="BY17">
+      <c r="BY17" t="n">
         <v>9128</v>
       </c>
-      <c r="BZ17">
+      <c r="BZ17" t="n">
         <v>8927</v>
       </c>
-      <c r="CA17">
+      <c r="CA17" t="n">
         <v>9113</v>
       </c>
-      <c r="CB17">
+      <c r="CB17" t="n">
         <v>9258</v>
       </c>
-      <c r="CC17">
+      <c r="CC17" t="n">
         <v>9468</v>
       </c>
-      <c r="CD17">
+      <c r="CD17" t="n">
         <v>9590</v>
       </c>
-      <c r="CE17">
+      <c r="CE17" t="n">
         <v>9784</v>
       </c>
-      <c r="CF17">
+      <c r="CF17" t="n">
         <v>9933</v>
       </c>
-      <c r="CG17">
+      <c r="CG17" t="n">
         <v>9990</v>
       </c>
-      <c r="CH17">
+      <c r="CH17" t="n">
         <v>10121</v>
       </c>
-      <c r="CI17">
+      <c r="CI17" t="n">
         <v>10363</v>
       </c>
-      <c r="CJ17">
+      <c r="CJ17" t="n">
         <v>10476</v>
       </c>
-      <c r="CK17">
+      <c r="CK17" t="n">
         <v>10554</v>
       </c>
-      <c r="CL17">
+      <c r="CL17" t="n">
         <v>10764</v>
       </c>
-      <c r="CM17">
+      <c r="CM17" t="n">
         <v>11064</v>
       </c>
-      <c r="CN17">
+      <c r="CN17" t="n">
         <v>11161</v>
       </c>
-      <c r="CO17">
+      <c r="CO17" t="n">
         <v>11227</v>
       </c>
-      <c r="CP17">
+      <c r="CP17" t="n">
         <v>11480</v>
       </c>
-      <c r="CQ17">
+      <c r="CQ17" t="n">
         <v>11722</v>
       </c>
-      <c r="CR17">
+      <c r="CR17" t="n">
         <v>11838</v>
       </c>
-      <c r="CS17">
+      <c r="CS17" t="n">
         <v>11868</v>
       </c>
-      <c r="CT17">
+      <c r="CT17" t="n">
         <v>12159</v>
       </c>
-      <c r="CU17">
+      <c r="CU17" t="n">
         <v>12552</v>
       </c>
-      <c r="CV17">
+      <c r="CV17" t="n">
         <v>12729</v>
       </c>
-      <c r="CW17">
+      <c r="CW17" t="n">
         <v>12752</v>
       </c>
-      <c r="CX17">
+      <c r="CX17" t="n">
         <v>14924.323</v>
       </c>
-      <c r="CY17">
+      <c r="CY17" t="n">
         <v>15280.628</v>
       </c>
-      <c r="CZ17">
+      <c r="CZ17" t="n">
         <v>15599.062</v>
       </c>
-      <c r="DA17">
+      <c r="DA17" t="n">
         <v>15656.34</v>
       </c>
-      <c r="DB17">
+      <c r="DB17" t="n">
         <v>15937.904</v>
       </c>
-      <c r="DC17">
+      <c r="DC17" t="n">
         <v>16295.199</v>
       </c>
-      <c r="DD17">
+      <c r="DD17" t="n">
         <v>16648.139</v>
       </c>
-      <c r="DE17">
+      <c r="DE17" t="n">
         <v>16711.799</v>
       </c>
-      <c r="DF17">
+      <c r="DF17" t="n">
         <v>17020.503</v>
       </c>
-      <c r="DG17">
+      <c r="DG17" t="n">
         <v>17394.603</v>
       </c>
-      <c r="DH17">
+      <c r="DH17" t="n">
         <v>17834.826</v>
       </c>
-      <c r="DI17">
+      <c r="DI17" t="n">
         <v>17894.716</v>
       </c>
-      <c r="DJ17">
+      <c r="DJ17" t="n">
         <v>18188.924</v>
       </c>
-      <c r="DK17">
+      <c r="DK17" t="n">
         <v>18579.334</v>
       </c>
-      <c r="DL17">
+      <c r="DL17" t="n">
         <v>19090.325</v>
       </c>
-      <c r="DM17">
+      <c r="DM17" t="n">
         <v>19164.513</v>
       </c>
-      <c r="DN17">
+      <c r="DN17" t="n">
         <v>18679.203</v>
       </c>
-      <c r="DO17">
+      <c r="DO17" t="n">
         <v>15004.078</v>
       </c>
-      <c r="DP17">
+      <c r="DP17" t="n">
         <v>17354.141</v>
       </c>
-      <c r="DQ17">
+      <c r="DQ17" t="n">
         <v>17152.171</v>
       </c>
-      <c r="DR17">
+      <c r="DR17" t="n">
         <v>16640.72</v>
       </c>
-      <c r="DS17">
+      <c r="DS17" t="n">
         <v>16583.076</v>
       </c>
-      <c r="DT17">
+      <c r="DT17" t="n">
         <v>16080.258</v>
       </c>
-      <c r="DU17">
+      <c r="DU17" t="n">
         <v>17478.395</v>
       </c>
-      <c r="DV17">
+      <c r="DV17" t="n">
         <v>17993.309</v>
       </c>
     </row>
-    <row r="18" spans="1:126">
-      <c r="A18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Import DutiesRM</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>1175</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>1260</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>1318</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>1398</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>1296</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>1431</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>1462</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>1437</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>1297</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>1451</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>1602</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>1736</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="n">
         <v>1637</v>
       </c>
-      <c r="O18">
+      <c r="O18" t="n">
         <v>1892</v>
       </c>
-      <c r="P18">
+      <c r="P18" t="n">
         <v>1908</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="n">
         <v>1964</v>
       </c>
-      <c r="R18">
+      <c r="R18" t="n">
         <v>1817</v>
       </c>
-      <c r="S18">
+      <c r="S18" t="n">
         <v>1953</v>
       </c>
-      <c r="T18">
+      <c r="T18" t="n">
         <v>1983</v>
       </c>
-      <c r="U18">
+      <c r="U18" t="n">
         <v>1806</v>
       </c>
-      <c r="V18">
+      <c r="V18" t="n">
         <v>1947</v>
       </c>
-      <c r="W18">
+      <c r="W18" t="n">
         <v>1926</v>
       </c>
-      <c r="X18">
+      <c r="X18" t="n">
         <v>2089</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" t="n">
         <v>2207</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" t="n">
         <v>2019</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" t="n">
         <v>2101</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" t="n">
         <v>2312</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" t="n">
         <v>2383</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" t="n">
         <v>1421</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" t="n">
         <v>1319</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" t="n">
         <v>1227</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" t="n">
         <v>1349</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" t="n">
         <v>1438</v>
       </c>
-      <c r="AI18">
+      <c r="AI18" t="n">
         <v>1860</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ18" t="n">
         <v>1609</v>
       </c>
-      <c r="AK18">
+      <c r="AK18" t="n">
         <v>1552</v>
       </c>
-      <c r="AL18">
+      <c r="AL18" t="n">
         <v>1444</v>
       </c>
-      <c r="AM18">
+      <c r="AM18" t="n">
         <v>1515</v>
       </c>
-      <c r="AN18">
+      <c r="AN18" t="n">
         <v>1463</v>
       </c>
-      <c r="AO18">
+      <c r="AO18" t="n">
         <v>1404</v>
       </c>
-      <c r="AP18">
+      <c r="AP18" t="n">
         <v>1364</v>
       </c>
-      <c r="AQ18">
+      <c r="AQ18" t="n">
         <v>1487</v>
       </c>
-      <c r="AR18">
+      <c r="AR18" t="n">
         <v>1333</v>
       </c>
-      <c r="AS18">
+      <c r="AS18" t="n">
         <v>1469</v>
       </c>
-      <c r="AT18">
+      <c r="AT18" t="n">
         <v>1513</v>
       </c>
-      <c r="AU18">
+      <c r="AU18" t="n">
         <v>1728</v>
       </c>
-      <c r="AV18">
+      <c r="AV18" t="n">
         <v>1704</v>
       </c>
-      <c r="AW18">
+      <c r="AW18" t="n">
         <v>1660</v>
       </c>
-      <c r="AX18">
+      <c r="AX18" t="n">
         <v>1550</v>
       </c>
-      <c r="AY18">
+      <c r="AY18" t="n">
         <v>1539</v>
       </c>
-      <c r="AZ18">
+      <c r="AZ18" t="n">
         <v>1736</v>
       </c>
-      <c r="BA18">
+      <c r="BA18" t="n">
         <v>1682</v>
       </c>
-      <c r="BB18">
+      <c r="BB18" t="n">
         <v>1441</v>
       </c>
-      <c r="BC18">
+      <c r="BC18" t="n">
         <v>1756</v>
       </c>
-      <c r="BD18">
+      <c r="BD18" t="n">
         <v>1666</v>
       </c>
-      <c r="BE18">
+      <c r="BE18" t="n">
         <v>1533</v>
       </c>
-      <c r="BF18">
+      <c r="BF18" t="n">
         <v>1625.24982285217</v>
       </c>
-      <c r="BG18">
+      <c r="BG18" t="n">
         <v>1657.48112330536</v>
       </c>
-      <c r="BH18">
+      <c r="BH18" t="n">
         <v>1724.38372424606</v>
       </c>
-      <c r="BI18">
+      <c r="BI18" t="n">
         <v>1364.54051918641</v>
       </c>
-      <c r="BJ18">
+      <c r="BJ18" t="n">
         <v>1434.40539539657</v>
       </c>
-      <c r="BK18">
+      <c r="BK18" t="n">
         <v>1409.33179547704</v>
       </c>
-      <c r="BL18">
+      <c r="BL18" t="n">
         <v>1465.16829529784</v>
       </c>
-      <c r="BM18">
+      <c r="BM18" t="n">
         <v>1349.65619566855</v>
       </c>
-      <c r="BN18">
+      <c r="BN18" t="n">
         <v>1439.09659307581</v>
       </c>
-      <c r="BO18">
+      <c r="BO18" t="n">
         <v>1436.28999308932</v>
       </c>
-      <c r="BP18">
+      <c r="BP18" t="n">
         <v>1586.24469236781</v>
       </c>
-      <c r="BQ18">
+      <c r="BQ18" t="n">
         <v>1507.42489274705</v>
       </c>
-      <c r="BR18">
+      <c r="BR18" t="n">
         <v>1411.17248356708</v>
       </c>
-      <c r="BS18">
+      <c r="BS18" t="n">
         <v>1973.96937701338</v>
       </c>
-      <c r="BT18">
+      <c r="BT18" t="n">
         <v>2075.77467582787</v>
       </c>
-      <c r="BU18">
+      <c r="BU18" t="n">
         <v>2070.29657589167</v>
       </c>
-      <c r="BV18">
+      <c r="BV18" t="n">
         <v>1618</v>
       </c>
-      <c r="BW18">
+      <c r="BW18" t="n">
         <v>1646</v>
       </c>
-      <c r="BX18">
+      <c r="BX18" t="n">
         <v>1725</v>
       </c>
-      <c r="BY18">
+      <c r="BY18" t="n">
         <v>1974</v>
       </c>
-      <c r="BZ18">
+      <c r="BZ18" t="n">
         <v>1591</v>
       </c>
-      <c r="CA18">
+      <c r="CA18" t="n">
         <v>1973</v>
       </c>
-      <c r="CB18">
+      <c r="CB18" t="n">
         <v>1858</v>
       </c>
-      <c r="CC18">
+      <c r="CC18" t="n">
         <v>2250</v>
       </c>
-      <c r="CD18">
+      <c r="CD18" t="n">
         <v>1847</v>
       </c>
-      <c r="CE18">
+      <c r="CE18" t="n">
         <v>2284</v>
       </c>
-      <c r="CF18">
+      <c r="CF18" t="n">
         <v>2320</v>
       </c>
-      <c r="CG18">
+      <c r="CG18" t="n">
         <v>2260</v>
       </c>
-      <c r="CH18">
+      <c r="CH18" t="n">
         <v>2400</v>
       </c>
-      <c r="CI18">
+      <c r="CI18" t="n">
         <v>2563</v>
       </c>
-      <c r="CJ18">
+      <c r="CJ18" t="n">
         <v>2600</v>
       </c>
-      <c r="CK18">
+      <c r="CK18" t="n">
         <v>2623</v>
       </c>
-      <c r="CL18">
+      <c r="CL18" t="n">
         <v>2521</v>
       </c>
-      <c r="CM18">
+      <c r="CM18" t="n">
         <v>2759</v>
       </c>
-      <c r="CN18">
+      <c r="CN18" t="n">
         <v>2759</v>
       </c>
-      <c r="CO18">
+      <c r="CO18" t="n">
         <v>2724</v>
       </c>
-      <c r="CP18">
+      <c r="CP18" t="n">
         <v>2782</v>
       </c>
-      <c r="CQ18">
+      <c r="CQ18" t="n">
         <v>3319</v>
       </c>
-      <c r="CR18">
+      <c r="CR18" t="n">
         <v>2933</v>
       </c>
-      <c r="CS18">
+      <c r="CS18" t="n">
         <v>2913</v>
       </c>
-      <c r="CT18">
+      <c r="CT18" t="n">
         <v>3151</v>
       </c>
-      <c r="CU18">
+      <c r="CU18" t="n">
         <v>3747</v>
       </c>
-      <c r="CV18">
+      <c r="CV18" t="n">
         <v>3621</v>
       </c>
-      <c r="CW18">
+      <c r="CW18" t="n">
         <v>4180</v>
       </c>
-      <c r="CX18">
+      <c r="CX18" t="n">
         <v>4135.517</v>
       </c>
-      <c r="CY18">
+      <c r="CY18" t="n">
         <v>4047.803</v>
       </c>
-      <c r="CZ18">
+      <c r="CZ18" t="n">
         <v>3948.121</v>
       </c>
-      <c r="DA18">
+      <c r="DA18" t="n">
         <v>4397.501</v>
       </c>
-      <c r="DB18">
+      <c r="DB18" t="n">
         <v>4661.175</v>
       </c>
-      <c r="DC18">
+      <c r="DC18" t="n">
         <v>4678.943</v>
       </c>
-      <c r="DD18">
+      <c r="DD18" t="n">
         <v>4748.268</v>
       </c>
-      <c r="DE18">
+      <c r="DE18" t="n">
         <v>5191.724</v>
       </c>
-      <c r="DF18">
+      <c r="DF18" t="n">
         <v>5218.912</v>
       </c>
-      <c r="DG18">
+      <c r="DG18" t="n">
         <v>4601.644</v>
       </c>
-      <c r="DH18">
+      <c r="DH18" t="n">
         <v>3247.044</v>
       </c>
-      <c r="DI18">
+      <c r="DI18" t="n">
         <v>4385.518</v>
       </c>
-      <c r="DJ18">
+      <c r="DJ18" t="n">
         <v>4156.092</v>
       </c>
-      <c r="DK18">
+      <c r="DK18" t="n">
         <v>4367.749</v>
       </c>
-      <c r="DL18">
+      <c r="DL18" t="n">
         <v>4335.884</v>
       </c>
-      <c r="DM18">
+      <c r="DM18" t="n">
         <v>4193.024</v>
       </c>
-      <c r="DN18">
+      <c r="DN18" t="n">
         <v>3601.848</v>
       </c>
-      <c r="DO18">
+      <c r="DO18" t="n">
         <v>3289.268</v>
       </c>
-      <c r="DP18">
+      <c r="DP18" t="n">
         <v>4305.35</v>
       </c>
-      <c r="DQ18">
+      <c r="DQ18" t="n">
         <v>4558.833</v>
       </c>
-      <c r="DR18">
+      <c r="DR18" t="n">
         <v>4199.045</v>
       </c>
-      <c r="DS18">
+      <c r="DS18" t="n">
         <v>4455.016</v>
       </c>
-      <c r="DT18">
+      <c r="DT18" t="n">
         <v>3634.883</v>
       </c>
-      <c r="DU18">
+      <c r="DU18" t="n">
         <v>4733.813</v>
       </c>
-      <c r="DV18">
+      <c r="DV18" t="n">
         <v>4316.519</v>
       </c>
     </row>
-    <row r="19" spans="1:126">
-      <c r="A19" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>GDP at Purchasers' ValueRM</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>31604</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>31549</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>35294</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>36676</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>35077</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>36006</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>39250</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>40348</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>39892</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>42472</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>45152</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>44677</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>43605</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>46665</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="n">
         <v>51777</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="n">
         <v>53413</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="n">
         <v>51315</v>
       </c>
-      <c r="S19">
+      <c r="S19" t="n">
         <v>54511</v>
       </c>
-      <c r="T19">
+      <c r="T19" t="n">
         <v>57189</v>
       </c>
-      <c r="U19">
+      <c r="U19" t="n">
         <v>59457</v>
       </c>
-      <c r="V19">
+      <c r="V19" t="n">
         <v>58835</v>
       </c>
-      <c r="W19">
+      <c r="W19" t="n">
         <v>61994</v>
       </c>
-      <c r="X19">
+      <c r="X19" t="n">
         <v>65274</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" t="n">
         <v>67628</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" t="n">
         <v>64994</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" t="n">
         <v>67790</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" t="n">
         <v>71854</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" t="n">
         <v>77157</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" t="n">
         <v>70779</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" t="n">
         <v>70218</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" t="n">
         <v>71976</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" t="n">
         <v>70271</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" t="n">
         <v>67576</v>
       </c>
-      <c r="AI19">
+      <c r="AI19" t="n">
         <v>73737</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ19" t="n">
         <v>78080</v>
       </c>
-      <c r="AK19">
+      <c r="AK19" t="n">
         <v>81373</v>
       </c>
-      <c r="AL19">
+      <c r="AL19" t="n">
         <v>82738</v>
       </c>
-      <c r="AM19">
+      <c r="AM19" t="n">
         <v>86726</v>
       </c>
-      <c r="AN19">
+      <c r="AN19" t="n">
         <v>92726</v>
       </c>
-      <c r="AO19">
+      <c r="AO19" t="n">
         <v>94211</v>
       </c>
-      <c r="AP19">
+      <c r="AP19" t="n">
         <v>85158</v>
       </c>
-      <c r="AQ19">
+      <c r="AQ19" t="n">
         <v>87765</v>
       </c>
-      <c r="AR19">
+      <c r="AR19" t="n">
         <v>90080</v>
       </c>
-      <c r="AS19">
+      <c r="AS19" t="n">
         <v>89576</v>
       </c>
-      <c r="AT19">
+      <c r="AT19" t="n">
         <v>87499</v>
       </c>
-      <c r="AU19">
+      <c r="AU19" t="n">
         <v>93830</v>
       </c>
-      <c r="AV19">
+      <c r="AV19" t="n">
         <v>100709</v>
       </c>
-      <c r="AW19">
+      <c r="AW19" t="n">
         <v>101174</v>
       </c>
-      <c r="AX19">
+      <c r="AX19" t="n">
         <v>99292</v>
       </c>
-      <c r="AY19">
+      <c r="AY19" t="n">
         <v>102091</v>
       </c>
-      <c r="AZ19">
+      <c r="AZ19" t="n">
         <v>106829</v>
       </c>
-      <c r="BA19">
+      <c r="BA19" t="n">
         <v>110557</v>
       </c>
-      <c r="BB19">
+      <c r="BB19" t="n">
         <v>110391</v>
       </c>
-      <c r="BC19">
+      <c r="BC19" t="n">
         <v>116508</v>
       </c>
-      <c r="BD19">
+      <c r="BD19" t="n">
         <v>122802</v>
       </c>
-      <c r="BE19">
+      <c r="BE19" t="n">
         <v>124348</v>
       </c>
-      <c r="BF19">
+      <c r="BF19" t="n">
         <v>126538.371006374</v>
       </c>
-      <c r="BG19">
+      <c r="BG19" t="n">
         <v>131806.587256339</v>
       </c>
-      <c r="BH19">
+      <c r="BH19" t="n">
         <v>141735.697959571</v>
       </c>
-      <c r="BI19">
+      <c r="BI19" t="n">
         <v>143497.150717991</v>
       </c>
-      <c r="BJ19">
+      <c r="BJ19" t="n">
         <v>141337.22040879</v>
       </c>
-      <c r="BK19">
+      <c r="BK19" t="n">
         <v>146841.342446609</v>
       </c>
-      <c r="BL19">
+      <c r="BL19" t="n">
         <v>155190.205646056</v>
       </c>
-      <c r="BM19">
+      <c r="BM19" t="n">
         <v>153414.806643415</v>
       </c>
-      <c r="BN19">
+      <c r="BN19" t="n">
         <v>150200.773107746</v>
       </c>
-      <c r="BO19">
+      <c r="BO19" t="n">
         <v>159893.892559256</v>
       </c>
-      <c r="BP19">
+      <c r="BP19" t="n">
         <v>171924.661541823</v>
       </c>
-      <c r="BQ19">
+      <c r="BQ19" t="n">
         <v>183320.381997695</v>
       </c>
-      <c r="BR19">
+      <c r="BR19" t="n">
         <v>182202.226567293</v>
       </c>
-      <c r="BS19">
+      <c r="BS19" t="n">
         <v>195021.418773752</v>
       </c>
-      <c r="BT19">
+      <c r="BT19" t="n">
         <v>205404.495542842</v>
       </c>
-      <c r="BU19">
+      <c r="BU19" t="n">
         <v>187321.050066631</v>
       </c>
-      <c r="BV19">
+      <c r="BV19" t="n">
         <v>165315</v>
       </c>
-      <c r="BW19">
+      <c r="BW19" t="n">
         <v>169790</v>
       </c>
-      <c r="BX19">
+      <c r="BX19" t="n">
         <v>182766</v>
       </c>
-      <c r="BY19">
+      <c r="BY19" t="n">
         <v>194986</v>
       </c>
-      <c r="BZ19">
+      <c r="BZ19" t="n">
         <v>196650</v>
       </c>
-      <c r="CA19">
+      <c r="CA19" t="n">
         <v>199372</v>
       </c>
-      <c r="CB19">
+      <c r="CB19" t="n">
         <v>207460</v>
       </c>
-      <c r="CC19">
+      <c r="CC19" t="n">
         <v>217953</v>
       </c>
-      <c r="CD19">
+      <c r="CD19" t="n">
         <v>218298</v>
       </c>
-      <c r="CE19">
+      <c r="CE19" t="n">
         <v>224055</v>
       </c>
-      <c r="CF19">
+      <c r="CF19" t="n">
         <v>231335</v>
       </c>
-      <c r="CG19">
+      <c r="CG19" t="n">
         <v>238045</v>
       </c>
-      <c r="CH19">
+      <c r="CH19" t="n">
         <v>234956</v>
       </c>
-      <c r="CI19">
+      <c r="CI19" t="n">
         <v>239607</v>
       </c>
-      <c r="CJ19">
+      <c r="CJ19" t="n">
         <v>245203</v>
       </c>
-      <c r="CK19">
+      <c r="CK19" t="n">
         <v>251485</v>
       </c>
-      <c r="CL19">
+      <c r="CL19" t="n">
         <v>241834</v>
       </c>
-      <c r="CM19">
+      <c r="CM19" t="n">
         <v>245051</v>
       </c>
-      <c r="CN19">
+      <c r="CN19" t="n">
         <v>258245</v>
       </c>
-      <c r="CO19">
+      <c r="CO19" t="n">
         <v>273484</v>
       </c>
-      <c r="CP19">
+      <c r="CP19" t="n">
         <v>265983</v>
       </c>
-      <c r="CQ19">
+      <c r="CQ19" t="n">
         <v>272369</v>
       </c>
-      <c r="CR19">
+      <c r="CR19" t="n">
         <v>278762</v>
       </c>
-      <c r="CS19">
+      <c r="CS19" t="n">
         <v>289328</v>
       </c>
-      <c r="CT19">
+      <c r="CT19" t="n">
         <v>277698</v>
       </c>
-      <c r="CU19">
+      <c r="CU19" t="n">
         <v>283722</v>
       </c>
-      <c r="CV19">
+      <c r="CV19" t="n">
         <v>292722</v>
       </c>
-      <c r="CW19">
+      <c r="CW19" t="n">
         <v>304371</v>
       </c>
-      <c r="CX19">
+      <c r="CX19" t="n">
         <v>295010.338</v>
       </c>
-      <c r="CY19">
+      <c r="CY19" t="n">
         <v>303739.31</v>
       </c>
-      <c r="CZ19">
+      <c r="CZ19" t="n">
         <v>316744.558</v>
       </c>
-      <c r="DA19">
+      <c r="DA19" t="n">
         <v>334203.488</v>
       </c>
-      <c r="DB19">
+      <c r="DB19" t="n">
         <v>328712.789</v>
       </c>
-      <c r="DC19">
+      <c r="DC19" t="n">
         <v>334691.756</v>
       </c>
-      <c r="DD19">
+      <c r="DD19" t="n">
         <v>347646.178</v>
       </c>
-      <c r="DE19">
+      <c r="DE19" t="n">
         <v>361259.109</v>
       </c>
-      <c r="DF19">
+      <c r="DF19" t="n">
         <v>346709.096</v>
       </c>
-      <c r="DG19">
+      <c r="DG19" t="n">
         <v>353932.996</v>
       </c>
-      <c r="DH19">
+      <c r="DH19" t="n">
         <v>367917.573</v>
       </c>
-      <c r="DI19">
+      <c r="DI19" t="n">
         <v>379199.97</v>
       </c>
-      <c r="DJ19">
+      <c r="DJ19" t="n">
         <v>362511.542</v>
       </c>
-      <c r="DK19">
+      <c r="DK19" t="n">
         <v>371602.822</v>
       </c>
-      <c r="DL19">
+      <c r="DL19" t="n">
         <v>382278.5</v>
       </c>
-      <c r="DM19">
+      <c r="DM19" t="n">
         <v>396344.889</v>
       </c>
-      <c r="DN19">
+      <c r="DN19" t="n">
         <v>367722.007</v>
       </c>
-      <c r="DO19">
+      <c r="DO19" t="n">
         <v>302348.262</v>
       </c>
-      <c r="DP19">
+      <c r="DP19" t="n">
         <v>368633.117</v>
       </c>
-      <c r="DQ19">
+      <c r="DQ19" t="n">
         <v>379296.958</v>
       </c>
-      <c r="DR19">
+      <c r="DR19" t="n">
         <v>371026.835</v>
       </c>
-      <c r="DS19">
+      <c r="DS19" t="n">
         <v>372105.931</v>
       </c>
-      <c r="DT19">
+      <c r="DT19" t="n">
         <v>377125.161</v>
       </c>
-      <c r="DU19">
+      <c r="DU19" t="n">
         <v>425113.657</v>
       </c>
-      <c r="DV19">
+      <c r="DV19" t="n">
         <v>422451.83</v>
       </c>
     </row>
-    <row r="20" spans="1:126">
-      <c r="A20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL20">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>ServicesRM</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
         <v>42189</v>
       </c>
-      <c r="AM20">
+      <c r="AM20" t="n">
         <v>43059</v>
       </c>
-      <c r="AN20">
+      <c r="AN20" t="n">
         <v>44626</v>
       </c>
-      <c r="AO20">
+      <c r="AO20" t="n">
         <v>45774</v>
       </c>
-      <c r="AP20">
+      <c r="AP20" t="n">
         <v>43802</v>
       </c>
-      <c r="AQ20">
+      <c r="AQ20" t="n">
         <v>45391</v>
       </c>
-      <c r="AR20">
+      <c r="AR20" t="n">
         <v>47284</v>
       </c>
-      <c r="AS20">
+      <c r="AS20" t="n">
         <v>48177</v>
       </c>
-      <c r="AT20">
+      <c r="AT20" t="n">
         <v>46828</v>
       </c>
-      <c r="AU20">
+      <c r="AU20" t="n">
         <v>49137</v>
       </c>
-      <c r="AV20">
+      <c r="AV20" t="n">
         <v>50524</v>
       </c>
-      <c r="AW20">
+      <c r="AW20" t="n">
         <v>52093</v>
       </c>
-      <c r="AX20">
+      <c r="AX20" t="n">
         <v>49774</v>
       </c>
-      <c r="AY20">
+      <c r="AY20" t="n">
         <v>50554</v>
       </c>
-      <c r="AZ20">
+      <c r="AZ20" t="n">
         <v>52946</v>
       </c>
-      <c r="BA20">
+      <c r="BA20" t="n">
         <v>54942</v>
       </c>
-      <c r="BB20">
+      <c r="BB20" t="n">
         <v>53436</v>
       </c>
-      <c r="BC20">
+      <c r="BC20" t="n">
         <v>55693</v>
       </c>
-      <c r="BD20">
+      <c r="BD20" t="n">
         <v>56951</v>
       </c>
-      <c r="BE20">
+      <c r="BE20" t="n">
         <v>58810</v>
       </c>
-      <c r="BF20">
+      <c r="BF20" t="n">
         <v>60051.473818541</v>
       </c>
-      <c r="BG20">
+      <c r="BG20" t="n">
         <v>62167.1054045309</v>
       </c>
-      <c r="BH20">
+      <c r="BH20" t="n">
         <v>64964.6716610828</v>
       </c>
-      <c r="BI20">
+      <c r="BI20" t="n">
         <v>67138.86203339251</v>
       </c>
-      <c r="BJ20">
+      <c r="BJ20" t="n">
         <v>65368.3205610467</v>
       </c>
-      <c r="BK20">
+      <c r="BK20" t="n">
         <v>68040.26623043499</v>
       </c>
-      <c r="BL20">
+      <c r="BL20" t="n">
         <v>70630.79482225671</v>
       </c>
-      <c r="BM20">
+      <c r="BM20" t="n">
         <v>72982.8196101022</v>
       </c>
-      <c r="BN20">
+      <c r="BN20" t="n">
         <v>71964.6724794358</v>
       </c>
-      <c r="BO20">
+      <c r="BO20" t="n">
         <v>74800.3486501506</v>
       </c>
-      <c r="BP20">
+      <c r="BP20" t="n">
         <v>80593.6875532899</v>
       </c>
-      <c r="BQ20">
+      <c r="BQ20" t="n">
         <v>84691.4784021509</v>
       </c>
-      <c r="BR20">
+      <c r="BR20" t="n">
         <v>83526.8050287433</v>
       </c>
-      <c r="BS20">
+      <c r="BS20" t="n">
         <v>87120.2973550137</v>
       </c>
-      <c r="BT20">
+      <c r="BT20" t="n">
         <v>91798.7252710077</v>
       </c>
-      <c r="BU20">
+      <c r="BU20" t="n">
         <v>92787.32505382141</v>
       </c>
-      <c r="BV20">
+      <c r="BV20" t="n">
         <v>85216</v>
       </c>
-      <c r="BW20">
+      <c r="BW20" t="n">
         <v>88739</v>
       </c>
-      <c r="BX20">
+      <c r="BX20" t="n">
         <v>94041</v>
       </c>
-      <c r="BY20">
+      <c r="BY20" t="n">
         <v>97989</v>
       </c>
-      <c r="BZ20">
+      <c r="BZ20" t="n">
         <v>99694</v>
       </c>
-      <c r="CA20">
+      <c r="CA20" t="n">
         <v>102398</v>
       </c>
-      <c r="CB20">
+      <c r="CB20" t="n">
         <v>106336</v>
       </c>
-      <c r="CC20">
+      <c r="CC20" t="n">
         <v>111954</v>
       </c>
-      <c r="CD20">
+      <c r="CD20" t="n">
         <v>108846</v>
       </c>
-      <c r="CE20">
+      <c r="CE20" t="n">
         <v>112246</v>
       </c>
-      <c r="CF20">
+      <c r="CF20" t="n">
         <v>115925</v>
       </c>
-      <c r="CG20">
+      <c r="CG20" t="n">
         <v>122165</v>
       </c>
-      <c r="CH20">
+      <c r="CH20" t="n">
         <v>118773</v>
       </c>
-      <c r="CI20">
+      <c r="CI20" t="n">
         <v>123212</v>
       </c>
-      <c r="CJ20">
+      <c r="CJ20" t="n">
         <v>127102</v>
       </c>
-      <c r="CK20">
+      <c r="CK20" t="n">
         <v>132743</v>
       </c>
-      <c r="CL20">
+      <c r="CL20" t="n">
         <v>126645</v>
       </c>
-      <c r="CM20">
+      <c r="CM20" t="n">
         <v>130269</v>
       </c>
-      <c r="CN20">
+      <c r="CN20" t="n">
         <v>135974</v>
       </c>
-      <c r="CO20">
+      <c r="CO20" t="n">
         <v>143298</v>
       </c>
-      <c r="CP20">
+      <c r="CP20" t="n">
         <v>138074</v>
       </c>
-      <c r="CQ20">
+      <c r="CQ20" t="n">
         <v>142058</v>
       </c>
-      <c r="CR20">
+      <c r="CR20" t="n">
         <v>148943</v>
       </c>
-      <c r="CS20">
+      <c r="CS20" t="n">
         <v>156443</v>
       </c>
-      <c r="CT20">
+      <c r="CT20" t="n">
         <v>148475</v>
       </c>
-      <c r="CU20">
+      <c r="CU20" t="n">
         <v>151433</v>
       </c>
-      <c r="CV20">
+      <c r="CV20" t="n">
         <v>157847</v>
       </c>
-      <c r="CW20">
+      <c r="CW20" t="n">
         <v>166833</v>
       </c>
-      <c r="CX20">
+      <c r="CX20" t="n">
         <v>199505.317</v>
       </c>
-      <c r="CY20">
+      <c r="CY20" t="n">
         <v>190280.903</v>
       </c>
-      <c r="CZ20">
+      <c r="CZ20" t="n">
         <v>195026.736</v>
       </c>
-      <c r="DA20">
+      <c r="DA20" t="n">
         <v>205009.05</v>
       </c>
-      <c r="DB20">
+      <c r="DB20" t="n">
         <v>176611.73</v>
       </c>
-      <c r="DC20">
+      <c r="DC20" t="n">
         <v>181489.296</v>
       </c>
-      <c r="DD20">
+      <c r="DD20" t="n">
         <v>189753.467</v>
       </c>
-      <c r="DE20">
+      <c r="DE20" t="n">
         <v>199505.317</v>
       </c>
-      <c r="DF20">
+      <c r="DF20" t="n">
         <v>190322.009</v>
       </c>
-      <c r="DG20">
+      <c r="DG20" t="n">
         <v>195100.671</v>
       </c>
-      <c r="DH20">
+      <c r="DH20" t="n">
         <v>205077.197</v>
       </c>
-      <c r="DI20">
+      <c r="DI20" t="n">
         <v>214493.568</v>
       </c>
-      <c r="DJ20">
+      <c r="DJ20" t="n">
         <v>203643.216</v>
       </c>
-      <c r="DK20">
+      <c r="DK20" t="n">
         <v>208630.08</v>
       </c>
-      <c r="DL20">
+      <c r="DL20" t="n">
         <v>218539.676</v>
       </c>
-      <c r="DM20">
+      <c r="DM20" t="n">
         <v>229317.161</v>
       </c>
-      <c r="DN20">
+      <c r="DN20" t="n">
         <v>211676.058</v>
       </c>
-      <c r="DO20">
+      <c r="DO20" t="n">
         <v>175604.296</v>
       </c>
-      <c r="DP20">
+      <c r="DP20" t="n">
         <v>210762.235</v>
       </c>
-      <c r="DQ20">
+      <c r="DQ20" t="n">
         <v>219009.978</v>
       </c>
-      <c r="DR20">
+      <c r="DR20" t="n">
         <v>206791.007</v>
       </c>
-      <c r="DS20">
+      <c r="DS20" t="n">
         <v>200623.2</v>
       </c>
-      <c r="DT20">
+      <c r="DT20" t="n">
         <v>202039.048</v>
       </c>
-      <c r="DU20">
+      <c r="DU20" t="n">
         <v>228859.28</v>
       </c>
-      <c r="DV20">
+      <c r="DV20" t="n">
         <v>224764.139</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>